--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6043" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979672D1-8BE9-4EAB-9F8E-C3362217ADBA}"/>
+  <xr:revisionPtr revIDLastSave="6090" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20AADF40-7D33-4D3C-B7A4-49D36C044C69}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48" yWindow="0" windowWidth="21552" windowHeight="12336" tabRatio="445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JAN25" sheetId="81" r:id="rId1"/>
-    <sheet name="DEC24" sheetId="80" r:id="rId2"/>
-    <sheet name="NOV24" sheetId="79" r:id="rId3"/>
-    <sheet name="OCT24" sheetId="78" r:id="rId4"/>
-    <sheet name="SEP24" sheetId="77" r:id="rId5"/>
-    <sheet name="AUG24" sheetId="76" r:id="rId6"/>
-    <sheet name="JUL24" sheetId="75" r:id="rId7"/>
-    <sheet name="JUN24" sheetId="74" r:id="rId8"/>
-    <sheet name="MAY24" sheetId="73" r:id="rId9"/>
-    <sheet name="APR24" sheetId="72" r:id="rId10"/>
-    <sheet name="MAR24" sheetId="71" r:id="rId11"/>
-    <sheet name="FEB24" sheetId="70" r:id="rId12"/>
+    <sheet name="FEB25" sheetId="82" r:id="rId1"/>
+    <sheet name="JAN25" sheetId="81" r:id="rId2"/>
+    <sheet name="DEC24" sheetId="80" r:id="rId3"/>
+    <sheet name="NOV24" sheetId="79" r:id="rId4"/>
+    <sheet name="OCT24" sheetId="78" r:id="rId5"/>
+    <sheet name="SEP24" sheetId="77" r:id="rId6"/>
+    <sheet name="AUG24" sheetId="76" r:id="rId7"/>
+    <sheet name="JUL24" sheetId="75" r:id="rId8"/>
+    <sheet name="JUN24" sheetId="74" r:id="rId9"/>
+    <sheet name="MAY24" sheetId="73" r:id="rId10"/>
+    <sheet name="APR24" sheetId="72" r:id="rId11"/>
+    <sheet name="MAR24" sheetId="71" r:id="rId12"/>
     <sheet name="JAN24" sheetId="69" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Profit - Expense</t>
-  </si>
-  <si>
-    <t>BEM</t>
   </si>
   <si>
     <t>Carry Over</t>
@@ -256,7 +253,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -373,6 +370,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -412,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -526,6 +529,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +545,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -894,28 +894,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32283096-5907-4E30-9E76-682BE04B55EC}">
-  <dimension ref="A1:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F818BAB4-5237-4BD8-9A61-131DACEE1BB2}">
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="12" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.625" style="6"/>
+    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
@@ -947,30 +950,31 @@
       <c r="J1" s="16"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B2" s="28">
-        <v>45288</v>
+        <v>45705</v>
       </c>
       <c r="C2" s="29">
-        <v>22500</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="37">
-        <v>0</v>
+        <v>4500</v>
+      </c>
+      <c r="D2" s="79">
+        <v>31</v>
+      </c>
+      <c r="E2" s="79">
+        <v>139808.98000000001</v>
+      </c>
+      <c r="F2" s="30">
+        <v>7.35</v>
       </c>
       <c r="G2" s="31">
-        <f t="shared" ref="G2" si="0">C2*F2</f>
-        <v>0</v>
+        <v>33001.74</v>
       </c>
       <c r="H2" s="32">
-        <f>G2</f>
-        <v>0</v>
+        <f>G2-E2</f>
+        <v>-106807.24000000002</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="7"/>
@@ -979,17 +983,31 @@
       <c r="M2" s="15"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="31"/>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="28">
+        <v>45705</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="79">
+        <v>12</v>
+      </c>
+      <c r="E3" s="79">
+        <v>18039.87</v>
+      </c>
+      <c r="F3" s="30">
+        <v>7.35</v>
+      </c>
+      <c r="G3" s="31">
+        <v>11000.58</v>
+      </c>
       <c r="H3" s="32">
-        <f>SUM(H2,H2)</f>
-        <v>0</v>
+        <f>G3-E3</f>
+        <v>-7039.2899999999991</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="7"/>
@@ -998,30 +1016,17 @@
       <c r="M3" s="15"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="28">
-        <v>45295</v>
-      </c>
-      <c r="C4" s="29">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="30">
-        <v>21.7</v>
-      </c>
-      <c r="E4" s="31">
-        <v>43496.13</v>
-      </c>
-      <c r="F4" s="30">
-        <v>22.9</v>
-      </c>
-      <c r="G4" s="31">
-        <v>45698.55</v>
-      </c>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="32">
-        <v>0</v>
+        <f>SUM(H2,H3)</f>
+        <v>-113846.53000000001</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -1032,22 +1037,20 @@
       <c r="B5" s="28"/>
       <c r="C5" s="29"/>
       <c r="D5" s="33"/>
-      <c r="E5" s="32">
-        <f>SUM(E4:E4)</f>
-        <v>43496.13</v>
-      </c>
+      <c r="E5" s="32"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="32">
-        <f>SUM(G4:G4)</f>
-        <v>45698.55</v>
+      <c r="G5" s="63" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="32">
-        <f>SUM(H4:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+        <f>H4</f>
+        <v>-113846.53000000001</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="28"/>
       <c r="C6" s="29"/>
@@ -1055,20 +1058,16 @@
       <c r="E6" s="32"/>
       <c r="F6" s="30"/>
       <c r="G6" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="34">
-        <f>H3+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H6" s="32">
+        <v>321444.99525200005</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
@@ -1076,18 +1075,17 @@
       <c r="E7" s="32"/>
       <c r="F7" s="30"/>
       <c r="G7" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="32">
-        <v>308000</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H7" s="41">
+        <f>SUM(H5,H6)</f>
+        <v>207598.46525200002</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="28"/>
       <c r="C8" s="29"/>
@@ -1095,19 +1093,16 @@
       <c r="E8" s="32"/>
       <c r="F8" s="30"/>
       <c r="G8" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="41">
-        <f>H6+H7</f>
-        <v>308000</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="H8" s="35">
+        <v>43930</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
@@ -1115,18 +1110,16 @@
       <c r="E9" s="32"/>
       <c r="F9" s="30"/>
       <c r="G9" s="32" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="35">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35090</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
@@ -1134,18 +1127,17 @@
       <c r="E10" s="32"/>
       <c r="F10" s="30"/>
       <c r="G10" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="35">
-        <v>43930</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+        <v>16</v>
+      </c>
+      <c r="H10" s="41">
+        <f>H8+H9</f>
+        <v>79020</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
@@ -1153,90 +1145,1032 @@
       <c r="E11" s="32"/>
       <c r="F11" s="30"/>
       <c r="G11" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="41">
-        <f>H9+H10</f>
-        <v>43930</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="36">
-        <f>H8-H11</f>
-        <v>264070</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
+      <c r="H11" s="36">
+        <f>H7-H10</f>
+        <v>128578.46525200002</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="G12" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="38">
+        <v>57000</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="38">
-        <v>57000</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="48">
-        <f>H12+H13</f>
-        <v>321070</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="6"/>
-    </row>
+      <c r="H13" s="48">
+        <f>H11+H12</f>
+        <v>185578.46525200002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AEDC17-A0FD-4C5F-9E38-7572886638C2}">
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="28">
+        <v>45414</v>
+      </c>
+      <c r="C2" s="29">
+        <v>78000</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="37">
+        <v>0.32</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2:G20" si="0">C2*F2</f>
+        <v>24960</v>
+      </c>
+      <c r="H2" s="40">
+        <f>G2</f>
+        <v>24960</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="28">
+        <v>45414</v>
+      </c>
+      <c r="C3" s="29">
+        <v>6000</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="32">
+        <f>G3*0.9</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45415</v>
+      </c>
+      <c r="C4" s="29">
+        <v>4200</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.49</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" si="0"/>
+        <v>2058</v>
+      </c>
+      <c r="H4" s="40">
+        <f>G4*0.9</f>
+        <v>1852.2</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="28">
+        <v>45420</v>
+      </c>
+      <c r="C5" s="29">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="37">
+        <v>1</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="H5" s="40">
+        <f>G5*0.9</f>
+        <v>4500</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="28">
+        <v>45420</v>
+      </c>
+      <c r="C6" s="29">
+        <v>15000</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="0"/>
+        <v>3900</v>
+      </c>
+      <c r="H6" s="40">
+        <f>G6*0.9</f>
+        <v>3510</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="28">
+        <v>45421</v>
+      </c>
+      <c r="C7" s="29">
+        <v>27000</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="0"/>
+        <v>7829.9999999999991</v>
+      </c>
+      <c r="H7" s="40">
+        <f>G7</f>
+        <v>7829.9999999999991</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="28">
+        <v>45422</v>
+      </c>
+      <c r="C8" s="29">
+        <v>6000</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
+        <f>G8*0.9</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="28">
+        <v>45422</v>
+      </c>
+      <c r="C9" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="H9" s="40">
+        <f>G9*0.9</f>
+        <v>6300</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="28">
+        <v>45429</v>
+      </c>
+      <c r="C10" s="29">
+        <v>30000</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="H10" s="40">
+        <f>G10*0.9</f>
+        <v>2700</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A11" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="28">
+        <v>45429</v>
+      </c>
+      <c r="C11" s="29">
+        <v>60000</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="70">
+        <v>0.36180000000000001</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" si="0"/>
+        <v>21708</v>
+      </c>
+      <c r="H11" s="40">
+        <f>G11*0.9</f>
+        <v>19537.2</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="28">
+        <v>45429</v>
+      </c>
+      <c r="C12" s="29">
+        <v>3600</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="69">
+        <v>0.35</v>
+      </c>
+      <c r="G12" s="31">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="H12" s="40">
+        <f>G12*0.9</f>
+        <v>1134</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A13" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="28">
+        <v>45429</v>
+      </c>
+      <c r="C13" s="29">
+        <v>27000</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="31">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+      <c r="H13" s="40">
+        <f>G13</f>
+        <v>13500</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="28">
+        <v>45435</v>
+      </c>
+      <c r="C14" s="29">
+        <v>4000</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="31">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H14" s="40">
+        <f>G14*0.9</f>
+        <v>900</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="28">
+        <v>45435</v>
+      </c>
+      <c r="C15" s="29">
+        <v>7200</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G15" s="31">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="H15" s="40">
+        <f>G15*0.9</f>
+        <v>1134</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="28">
+        <v>45435</v>
+      </c>
+      <c r="C16" s="29">
+        <v>45000</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="31">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+      <c r="H16" s="40">
+        <f>G16*0.9</f>
+        <v>12150</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="28">
+        <v>45436</v>
+      </c>
+      <c r="C17" s="29">
+        <v>1200</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0.95</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+      <c r="H17" s="40">
+        <f>G17*0.9</f>
+        <v>1026</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A18" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="28">
+        <v>45436</v>
+      </c>
+      <c r="C18" s="29">
+        <v>9000</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="H18" s="40">
+        <f>G18*0.9</f>
+        <v>405</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A19" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="28">
+        <v>45436</v>
+      </c>
+      <c r="C19" s="29">
+        <v>105000</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="0"/>
+        <v>24591</v>
+      </c>
+      <c r="H19" s="40">
+        <v>22190.240000000002</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A20" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="28">
+        <v>45440</v>
+      </c>
+      <c r="C20" s="29">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="H20" s="40">
+        <f>G20*0.9</f>
+        <v>315</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="34">
+        <f>SUM(H2:H20)</f>
+        <v>123943.64</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="32">
+        <f>SUM(E22:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="32">
+        <f>SUM(G22:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="44">
+        <f>SUM(H22:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A24" s="26"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="34">
+        <f>H21+H23</f>
+        <v>123943.64</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A25" s="26"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="34">
+        <v>66229.330000000016</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A26" s="26"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="34">
+        <f>H24+H25</f>
+        <v>190172.97000000003</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="35">
+        <v>296920</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="35">
+        <v>46080</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A29" s="26"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="41">
+        <f>H27+H28</f>
+        <v>343000</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A30" s="5"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="46">
+        <f>H26-H29</f>
+        <v>-152827.02999999997</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A31" s="5"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="38">
+        <v>501000</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A32" s="6"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="39">
+        <f>H30+H31</f>
+        <v>348172.97000000003</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="9:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="K35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="K38" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
+    <sortCondition ref="B2:B20"/>
+    <sortCondition ref="A2:A20"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1845BDB-D516-46D6-8D8D-8AAF831D4343}">
   <dimension ref="A1:N23"/>
   <sheetViews>
@@ -1298,7 +2232,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="28">
         <v>45405</v>
@@ -1332,7 +2266,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="28">
         <v>45406</v>
@@ -1366,7 +2300,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="28">
         <v>45412</v>
@@ -1400,7 +2334,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A5" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="28">
         <v>45412</v>
@@ -1453,7 +2387,7 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A7" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="28">
         <v>44652</v>
@@ -1538,7 +2472,7 @@
       <c r="E10" s="32"/>
       <c r="F10" s="30"/>
       <c r="G10" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="32">
         <v>50494.640000000007</v>
@@ -1558,7 +2492,7 @@
       <c r="E11" s="32"/>
       <c r="F11" s="30"/>
       <c r="G11" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="34">
         <f>H9+H10</f>
@@ -1599,7 +2533,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="35">
         <v>38570</v>
@@ -1661,7 +2595,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="10"/>
       <c r="G16" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="38">
         <v>266000</v>
@@ -1681,7 +2615,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="10"/>
       <c r="G17" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="39">
         <f>H15+H16</f>
@@ -1727,7 +2661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554ED3F5-6E87-4EB3-94FA-6B0AD1441A5E}">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -1786,7 +2720,7 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="58">
         <v>45355</v>
@@ -1817,7 +2751,7 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="58">
         <v>45364</v>
@@ -1848,7 +2782,7 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="58">
         <v>45366</v>
@@ -1910,7 +2844,7 @@
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="58">
         <v>45373</v>
@@ -1941,7 +2875,7 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="58">
         <v>45379</v>
@@ -1972,7 +2906,7 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="58">
         <v>45380</v>
@@ -2019,7 +2953,7 @@
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="58">
         <v>45355</v>
@@ -2093,7 +3027,7 @@
       <c r="E13" s="63"/>
       <c r="F13" s="62"/>
       <c r="G13" s="63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="63">
         <v>6104.3000000000102</v>
@@ -2143,7 +3077,7 @@
       <c r="E16" s="63"/>
       <c r="F16" s="62"/>
       <c r="G16" s="63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="66">
         <v>49000</v>
@@ -2194,300 +3128,6 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="L19" s="6"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5101AE5-394A-4B67-B9A3-39D0460F2D82}">
-  <dimension ref="A1:N13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="28">
-        <v>45288</v>
-      </c>
-      <c r="C2" s="29">
-        <v>22500</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="37">
-        <v>0</v>
-      </c>
-      <c r="G2" s="31">
-        <f t="shared" ref="G2" si="0">C2*F2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="32">
-        <f>G2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32">
-        <f>SUM(H2,H2)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="28">
-        <v>45328</v>
-      </c>
-      <c r="C4" s="29">
-        <v>3000</v>
-      </c>
-      <c r="D4" s="30">
-        <v>7.5</v>
-      </c>
-      <c r="E4" s="31">
-        <v>22549.84</v>
-      </c>
-      <c r="F4" s="30">
-        <v>7.55</v>
-      </c>
-      <c r="G4" s="31">
-        <v>22599.83</v>
-      </c>
-      <c r="H4" s="32">
-        <f t="shared" ref="H4" si="1">G4-E4</f>
-        <v>49.990000000001601</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32">
-        <f>SUM(E4:E4)</f>
-        <v>22549.84</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32">
-        <f>SUM(G4:G4)</f>
-        <v>22599.83</v>
-      </c>
-      <c r="H5" s="34">
-        <f>SUM(H4:H4)</f>
-        <v>49.990000000001601</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="32">
-        <f>H3+H5</f>
-        <v>49.990000000001601</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="32">
-        <v>6054.3100000000086</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="34">
-        <f>SUM(H6,H7)</f>
-        <v>6104.3000000000102</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="35">
-        <v>56420</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="35">
-        <v>152930</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="32">
-        <f>H9+H10</f>
-        <v>209350</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="36">
-        <f>H8-H11</f>
-        <v>-203245.69999999998</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="L13" s="6"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2857,12 +3497,355 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32283096-5907-4E30-9E76-682BE04B55EC}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="28">
+        <v>45288</v>
+      </c>
+      <c r="C2" s="29">
+        <v>22500</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="37">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2" si="0">C2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="32">
+        <f>G2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32">
+        <f>SUM(H2,H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45295</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="30">
+        <v>21.7</v>
+      </c>
+      <c r="E4" s="31">
+        <v>43496.13</v>
+      </c>
+      <c r="F4" s="30">
+        <v>22.9</v>
+      </c>
+      <c r="G4" s="31">
+        <v>45698.55</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32">
+        <f>SUM(E4:E4)</f>
+        <v>43496.13</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="32">
+        <f>SUM(G4:G4)</f>
+        <v>45698.55</v>
+      </c>
+      <c r="H5" s="32">
+        <f>SUM(H4:H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="34">
+        <f>H3+H5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="32">
+        <v>308374.99525200005</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="41">
+        <f>H6+H7</f>
+        <v>308374.99525200005</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="35">
+        <v>43930</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="41">
+        <f>H9+H10</f>
+        <v>43930</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="36">
+        <f>H8-H11</f>
+        <v>264444.99525200005</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="38">
+        <v>57000</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="48">
+        <f>H12+H13</f>
+        <v>321444.99525200005</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="6"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70859943-B961-4C68-A873-2ACB6A8732BB}">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2918,7 +3901,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="28">
         <v>45632</v>
@@ -2950,7 +3933,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="28">
         <v>45632</v>
@@ -2982,7 +3965,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="28">
         <v>45637</v>
@@ -3014,7 +3997,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A5" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="28">
         <v>45638</v>
@@ -3046,7 +4029,7 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A6" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="28">
         <v>45638</v>
@@ -3078,7 +4061,7 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A7" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="28">
         <v>45639</v>
@@ -3110,7 +4093,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A8" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="28">
         <v>45639</v>
@@ -3142,7 +4125,7 @@
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A9" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="28">
         <v>45639</v>
@@ -3174,7 +4157,7 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A10" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="28">
         <v>45643</v>
@@ -3206,7 +4189,7 @@
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A11" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="28">
         <v>45651</v>
@@ -3371,7 +4354,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="30"/>
       <c r="G17" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="32">
         <v>318141.89525200002</v>
@@ -3388,7 +4371,7 @@
       <c r="E18" s="32"/>
       <c r="F18" s="30"/>
       <c r="G18" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" s="41">
         <f>H16+H17</f>
@@ -3423,7 +4406,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="30"/>
       <c r="G20" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="35">
         <v>38000</v>
@@ -3482,7 +4465,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="10"/>
       <c r="G23" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="38">
         <v>668000</v>
@@ -3502,7 +4485,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="10"/>
       <c r="G24" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="48">
         <f>H22+H23</f>
@@ -3549,7 +4532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7988E558-09BF-4546-BFFB-0E642120F5F9}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -3611,7 +4594,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="28">
         <v>44846</v>
@@ -3662,7 +4645,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="28">
         <v>45590</v>
@@ -3744,13 +4727,13 @@
       <c r="E7" s="32"/>
       <c r="F7" s="30"/>
       <c r="G7" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="32">
         <v>318141.89525200002</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="15"/>
@@ -3764,7 +4747,7 @@
       <c r="E8" s="32"/>
       <c r="F8" s="30"/>
       <c r="G8" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="41">
         <f>H6+H7</f>
@@ -3802,7 +4785,7 @@
       <c r="E10" s="32"/>
       <c r="F10" s="30"/>
       <c r="G10" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="35">
         <v>26320</v>
@@ -3861,7 +4844,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="10"/>
       <c r="G13" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="38">
         <v>668000</v>
@@ -3881,7 +4864,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="10"/>
       <c r="G14" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="42">
         <f>H12+H13</f>
@@ -3924,7 +4907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E8D5A8-C6BD-47CE-94D2-6F0DD38CBCC4}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -3986,7 +4969,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="28">
         <v>45576</v>
@@ -4037,7 +5020,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="28">
         <v>45590</v>
@@ -4119,7 +5102,7 @@
       <c r="E7" s="32"/>
       <c r="F7" s="30"/>
       <c r="G7" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="32">
         <v>316673.09525200003</v>
@@ -4136,7 +5119,7 @@
       <c r="E8" s="32"/>
       <c r="F8" s="30"/>
       <c r="G8" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="41">
         <f>H6+H7</f>
@@ -4171,7 +5154,7 @@
       <c r="E10" s="32"/>
       <c r="F10" s="30"/>
       <c r="G10" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="35">
         <v>60880</v>
@@ -4230,7 +5213,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="10"/>
       <c r="G13" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="38">
         <v>668000</v>
@@ -4250,7 +5233,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="10"/>
       <c r="G14" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="42">
         <f>H12+H13</f>
@@ -4293,7 +5276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04FE74-71A4-490B-8947-83CEB1364CED}">
   <dimension ref="A1:N41"/>
   <sheetViews>
@@ -4355,7 +5338,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="28">
         <v>45540</v>
@@ -4387,7 +5370,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="28">
         <v>45540</v>
@@ -4419,7 +5402,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="28">
         <v>45541</v>
@@ -4451,7 +5434,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A5" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="28">
         <v>45541</v>
@@ -4483,7 +5466,7 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A6" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="28">
         <v>45541</v>
@@ -4515,7 +5498,7 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A7" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="28">
         <v>45541</v>
@@ -4547,7 +5530,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A8" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="28">
         <v>45545</v>
@@ -4579,7 +5562,7 @@
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A9" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="28">
         <v>45545</v>
@@ -4611,7 +5594,7 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A10" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="28">
         <v>45546</v>
@@ -4642,7 +5625,7 @@
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A11" s="75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="28">
         <v>45546</v>
@@ -4674,7 +5657,7 @@
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A12" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="28">
         <v>45546</v>
@@ -4705,7 +5688,7 @@
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A13" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="28">
         <v>45547</v>
@@ -4737,7 +5720,7 @@
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A14" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="28">
         <v>45547</v>
@@ -4801,7 +5784,7 @@
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A16" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="28">
         <v>45547</v>
@@ -4833,7 +5816,7 @@
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A17" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="28">
         <v>45547</v>
@@ -4897,7 +5880,7 @@
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A19" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="28">
         <v>45548</v>
@@ -4929,7 +5912,7 @@
     </row>
     <row r="20" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A20" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="28">
         <v>45559</v>
@@ -4980,7 +5963,7 @@
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="28">
         <v>45541</v>
@@ -5013,7 +5996,7 @@
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="28">
         <v>45545</v>
@@ -5046,7 +6029,7 @@
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="28">
         <v>45551</v>
@@ -5079,7 +6062,7 @@
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="28">
         <v>45554</v>
@@ -5112,7 +6095,7 @@
     </row>
     <row r="26" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="28">
         <v>45555</v>
@@ -5145,7 +6128,7 @@
     </row>
     <row r="27" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="28">
         <v>45560</v>
@@ -5228,7 +6211,7 @@
       <c r="E30" s="32"/>
       <c r="F30" s="30"/>
       <c r="G30" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H30" s="32">
         <v>251173.58000000005</v>
@@ -5245,7 +6228,7 @@
       <c r="E31" s="32"/>
       <c r="F31" s="30"/>
       <c r="G31" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" s="41">
         <f>H29+H30</f>
@@ -5280,7 +6263,7 @@
       <c r="E33" s="32"/>
       <c r="F33" s="30"/>
       <c r="G33" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="35">
         <v>24140</v>
@@ -5339,7 +6322,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="10"/>
       <c r="G36" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36" s="38">
         <v>668000</v>
@@ -5359,7 +6342,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="10"/>
       <c r="G37" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37" s="42">
         <f>H35+H36</f>
@@ -5378,7 +6361,7 @@
     </row>
     <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="28">
         <v>45546</v>
@@ -5407,7 +6390,7 @@
     </row>
     <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="28">
         <v>45530</v>
@@ -5456,7 +6439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B64914-ACBB-4D20-87ED-E769BFD61729}">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -5518,7 +6501,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="28">
         <v>45527</v>
@@ -5569,7 +6552,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="28">
         <v>45525</v>
@@ -5602,7 +6585,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="28">
         <v>45526</v>
@@ -5635,7 +6618,7 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="28">
         <v>45530</v>
@@ -5668,7 +6651,7 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="28">
         <v>45531</v>
@@ -5750,7 +6733,7 @@
       <c r="E10" s="32"/>
       <c r="F10" s="30"/>
       <c r="G10" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="32">
         <v>224227.14000000004</v>
@@ -5767,7 +6750,7 @@
       <c r="E11" s="32"/>
       <c r="F11" s="30"/>
       <c r="G11" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="41">
         <f>H9+H10</f>
@@ -5802,7 +6785,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="35">
         <v>65590</v>
@@ -5861,7 +6844,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="10"/>
       <c r="G16" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="38">
         <v>501000</v>
@@ -5881,7 +6864,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="10"/>
       <c r="G17" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="42">
         <f>H15+H16</f>
@@ -5928,7 +6911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7779AD-9FD4-4875-AFE3-40C7C57A50BD}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -5990,7 +6973,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="28">
         <v>44736</v>
@@ -6040,7 +7023,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="28">
         <v>45128</v>
@@ -6121,7 +7104,7 @@
       <c r="E7" s="32"/>
       <c r="F7" s="30"/>
       <c r="G7" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="32">
         <v>224227.14000000004</v>
@@ -6138,7 +7121,7 @@
       <c r="E8" s="32"/>
       <c r="F8" s="30"/>
       <c r="G8" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="34">
         <f>H6+H7</f>
@@ -6173,7 +7156,7 @@
       <c r="E10" s="32"/>
       <c r="F10" s="30"/>
       <c r="G10" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="35">
         <v>78420</v>
@@ -6232,7 +7215,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="10"/>
       <c r="G13" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="38">
         <v>501000</v>
@@ -6252,7 +7235,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="10"/>
       <c r="G14" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="39">
         <f>H12+H13</f>
@@ -6295,7 +7278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5A78CF-C3FD-4A01-A4AA-1A01BA055806}">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -6357,7 +7340,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="28">
         <v>45450</v>
@@ -6389,7 +7372,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A3" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="28">
         <v>45450</v>
@@ -6421,7 +7404,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="28">
         <v>45455</v>
@@ -6453,7 +7436,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A5" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="28">
         <v>45456</v>
@@ -6485,7 +7468,7 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A6" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="28">
         <v>45456</v>
@@ -6549,7 +7532,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A8" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="28">
         <v>45467</v>
@@ -6600,7 +7583,7 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A10" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="28">
         <v>45448</v>
@@ -6685,7 +7668,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="32">
         <v>190172.97000000003</v>
@@ -6705,7 +7688,7 @@
       <c r="E14" s="32"/>
       <c r="F14" s="30"/>
       <c r="G14" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="34">
         <f>H12+H13</f>
@@ -6746,7 +7729,7 @@
       <c r="E16" s="32"/>
       <c r="F16" s="30"/>
       <c r="G16" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="35">
         <v>87160</v>
@@ -6808,7 +7791,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="10"/>
       <c r="G19" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="38">
         <v>501000</v>
@@ -6828,7 +7811,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="10"/>
       <c r="G20" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="39">
         <f>H18+H19</f>
@@ -6872,989 +7855,4 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AEDC17-A0FD-4C5F-9E38-7572886638C2}">
-  <dimension ref="A1:N38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="28">
-        <v>45414</v>
-      </c>
-      <c r="C2" s="29">
-        <v>78000</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="37">
-        <v>0.32</v>
-      </c>
-      <c r="G2" s="31">
-        <f t="shared" ref="G2:G20" si="0">C2*F2</f>
-        <v>24960</v>
-      </c>
-      <c r="H2" s="40">
-        <f>G2</f>
-        <v>24960</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="28">
-        <v>45414</v>
-      </c>
-      <c r="C3" s="29">
-        <v>6000</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="37">
-        <v>0</v>
-      </c>
-      <c r="G3" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="32">
-        <f>G3*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="28">
-        <v>45415</v>
-      </c>
-      <c r="C4" s="29">
-        <v>4200</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="37">
-        <v>0.49</v>
-      </c>
-      <c r="G4" s="31">
-        <f t="shared" si="0"/>
-        <v>2058</v>
-      </c>
-      <c r="H4" s="40">
-        <f>G4*0.9</f>
-        <v>1852.2</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A5" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="28">
-        <v>45420</v>
-      </c>
-      <c r="C5" s="29">
-        <v>5000</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="37">
-        <v>1</v>
-      </c>
-      <c r="G5" s="31">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="H5" s="40">
-        <f>G5*0.9</f>
-        <v>4500</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A6" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="28">
-        <v>45420</v>
-      </c>
-      <c r="C6" s="29">
-        <v>15000</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="37">
-        <v>0.26</v>
-      </c>
-      <c r="G6" s="31">
-        <f t="shared" si="0"/>
-        <v>3900</v>
-      </c>
-      <c r="H6" s="40">
-        <f>G6*0.9</f>
-        <v>3510</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="28">
-        <v>45421</v>
-      </c>
-      <c r="C7" s="29">
-        <v>27000</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="37">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G7" s="31">
-        <f t="shared" si="0"/>
-        <v>7829.9999999999991</v>
-      </c>
-      <c r="H7" s="40">
-        <f>G7</f>
-        <v>7829.9999999999991</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="28">
-        <v>45422</v>
-      </c>
-      <c r="C8" s="29">
-        <v>6000</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="37">
-        <v>0</v>
-      </c>
-      <c r="G8" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="32">
-        <f>G8*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="28">
-        <v>45422</v>
-      </c>
-      <c r="C9" s="29">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="G9" s="31">
-        <f t="shared" si="0"/>
-        <v>7000</v>
-      </c>
-      <c r="H9" s="40">
-        <f>G9*0.9</f>
-        <v>6300</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A10" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="28">
-        <v>45429</v>
-      </c>
-      <c r="C10" s="29">
-        <v>30000</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="31">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="H10" s="40">
-        <f>G10*0.9</f>
-        <v>2700</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A11" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="28">
-        <v>45429</v>
-      </c>
-      <c r="C11" s="29">
-        <v>60000</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="70">
-        <v>0.36180000000000001</v>
-      </c>
-      <c r="G11" s="31">
-        <f t="shared" si="0"/>
-        <v>21708</v>
-      </c>
-      <c r="H11" s="40">
-        <f>G11*0.9</f>
-        <v>19537.2</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="28">
-        <v>45429</v>
-      </c>
-      <c r="C12" s="29">
-        <v>3600</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="69">
-        <v>0.35</v>
-      </c>
-      <c r="G12" s="31">
-        <f t="shared" si="0"/>
-        <v>1260</v>
-      </c>
-      <c r="H12" s="40">
-        <f>G12*0.9</f>
-        <v>1134</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A13" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="28">
-        <v>45429</v>
-      </c>
-      <c r="C13" s="29">
-        <v>27000</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="31">
-        <f t="shared" si="0"/>
-        <v>13500</v>
-      </c>
-      <c r="H13" s="40">
-        <f>G13</f>
-        <v>13500</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="28">
-        <v>45435</v>
-      </c>
-      <c r="C14" s="29">
-        <v>4000</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="37">
-        <v>0.25</v>
-      </c>
-      <c r="G14" s="31">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="H14" s="40">
-        <f>G14*0.9</f>
-        <v>900</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A15" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="28">
-        <v>45435</v>
-      </c>
-      <c r="C15" s="29">
-        <v>7200</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="37">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G15" s="31">
-        <f t="shared" si="0"/>
-        <v>1260</v>
-      </c>
-      <c r="H15" s="40">
-        <f>G15*0.9</f>
-        <v>1134</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A16" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="28">
-        <v>45435</v>
-      </c>
-      <c r="C16" s="29">
-        <v>45000</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="31">
-        <f t="shared" si="0"/>
-        <v>13500</v>
-      </c>
-      <c r="H16" s="40">
-        <f>G16*0.9</f>
-        <v>12150</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A17" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="28">
-        <v>45436</v>
-      </c>
-      <c r="C17" s="29">
-        <v>1200</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="37">
-        <v>0.95</v>
-      </c>
-      <c r="G17" s="31">
-        <f t="shared" si="0"/>
-        <v>1140</v>
-      </c>
-      <c r="H17" s="40">
-        <f>G17*0.9</f>
-        <v>1026</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A18" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="28">
-        <v>45436</v>
-      </c>
-      <c r="C18" s="29">
-        <v>9000</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="37">
-        <v>0.05</v>
-      </c>
-      <c r="G18" s="31">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="H18" s="40">
-        <f>G18*0.9</f>
-        <v>405</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A19" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="28">
-        <v>45436</v>
-      </c>
-      <c r="C19" s="29">
-        <v>105000</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="37">
-        <v>0.23419999999999999</v>
-      </c>
-      <c r="G19" s="31">
-        <f t="shared" si="0"/>
-        <v>24591</v>
-      </c>
-      <c r="H19" s="40">
-        <v>22190.240000000002</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A20" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="28">
-        <v>45440</v>
-      </c>
-      <c r="C20" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="G20" s="31">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="H20" s="40">
-        <f>G20*0.9</f>
-        <v>315</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="34">
-        <f>SUM(H2:H20)</f>
-        <v>123943.64</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A22" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A23" s="26"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="32">
-        <f>SUM(E22:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="32">
-        <f>SUM(G22:G22)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="44">
-        <f>SUM(H22:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A24" s="26"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="34">
-        <f>H21+H23</f>
-        <v>123943.64</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A25" s="26"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="34">
-        <v>66229.330000000016</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A26" s="26"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="34">
-        <f>H24+H25</f>
-        <v>190172.97000000003</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A27" s="26"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="35">
-        <v>296920</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A28" s="26"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="35">
-        <v>46080</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A29" s="26"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="41">
-        <f>H27+H28</f>
-        <v>343000</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A30" s="5"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="46">
-        <f>H26-H29</f>
-        <v>-152827.02999999997</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A31" s="5"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="38">
-        <v>501000</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A32" s="6"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="39">
-        <f>H30+H31</f>
-        <v>348172.97000000003</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="9:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="K35" s="7"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="K38" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
-    <sortCondition ref="B2:B20"/>
-    <sortCondition ref="A2:A20"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6090" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20AADF40-7D33-4D3C-B7A4-49D36C044C69}"/>
+  <xr:revisionPtr revIDLastSave="6152" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E84B5096-8BDA-4E02-ADA0-3D72636B6808}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="0" windowWidth="21552" windowHeight="12336" tabRatio="445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="396" windowWidth="14736" windowHeight="10476" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FEB25" sheetId="82" r:id="rId1"/>
-    <sheet name="JAN25" sheetId="81" r:id="rId2"/>
-    <sheet name="DEC24" sheetId="80" r:id="rId3"/>
-    <sheet name="NOV24" sheetId="79" r:id="rId4"/>
-    <sheet name="OCT24" sheetId="78" r:id="rId5"/>
-    <sheet name="SEP24" sheetId="77" r:id="rId6"/>
-    <sheet name="AUG24" sheetId="76" r:id="rId7"/>
-    <sheet name="JUL24" sheetId="75" r:id="rId8"/>
-    <sheet name="JUN24" sheetId="74" r:id="rId9"/>
-    <sheet name="MAY24" sheetId="73" r:id="rId10"/>
-    <sheet name="APR24" sheetId="72" r:id="rId11"/>
-    <sheet name="MAR24" sheetId="71" r:id="rId12"/>
-    <sheet name="JAN24" sheetId="69" r:id="rId13"/>
+    <sheet name="MAR25" sheetId="83" r:id="rId1"/>
+    <sheet name="MAR24" sheetId="71" r:id="rId2"/>
+    <sheet name="FEB25" sheetId="82" r:id="rId3"/>
+    <sheet name="JAN25" sheetId="81" r:id="rId4"/>
+    <sheet name="JAN24" sheetId="69" r:id="rId5"/>
+    <sheet name="DEC24" sheetId="80" r:id="rId6"/>
+    <sheet name="NOV24" sheetId="79" r:id="rId7"/>
+    <sheet name="OCT24" sheetId="78" r:id="rId8"/>
+    <sheet name="SEP24" sheetId="77" r:id="rId9"/>
+    <sheet name="AUG24" sheetId="76" r:id="rId10"/>
+    <sheet name="JUL24" sheetId="75" r:id="rId11"/>
+    <sheet name="JUN24" sheetId="74" r:id="rId12"/>
+    <sheet name="MAY24" sheetId="73" r:id="rId13"/>
+    <sheet name="APR24" sheetId="72" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -241,6 +242,18 @@
   <si>
     <t>Jan Expense</t>
   </si>
+  <si>
+    <t>*1*</t>
+  </si>
+  <si>
+    <t>*2*</t>
+  </si>
+  <si>
+    <t>*1* - *2*</t>
+  </si>
+  <si>
+    <t>Div-Exp+Refund</t>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +266,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -371,10 +384,30 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -415,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -529,7 +562,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,6 +594,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -894,23 +947,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F818BAB4-5237-4BD8-9A61-131DACEE1BB2}">
-  <dimension ref="A1:N16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779217B5-9CE8-46BD-8B22-71F5AA3AD105}">
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="12" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="49" customWidth="1"/>
     <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="7" customWidth="1"/>
     <col min="9" max="9" width="8.25" style="11" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
     <col min="11" max="11" width="13" style="6" customWidth="1"/>
@@ -921,7 +974,7 @@
     <col min="16" max="16384" width="8.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -937,7 +990,7 @@
       <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="91" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="24" t="s">
@@ -950,31 +1003,509 @@
       <c r="J1" s="16"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B2" s="28">
-        <v>45705</v>
+        <v>45355</v>
       </c>
       <c r="C2" s="29">
-        <v>4500</v>
-      </c>
-      <c r="D2" s="79">
-        <v>31</v>
-      </c>
-      <c r="E2" s="79">
-        <v>139808.98000000001</v>
-      </c>
-      <c r="F2" s="30">
-        <v>7.35</v>
+        <v>30000</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="37">
+        <v>0.22639999999999999</v>
       </c>
       <c r="G2" s="31">
-        <v>33001.74</v>
+        <f t="shared" ref="G2:G8" si="0">C2*F2</f>
+        <v>6792</v>
       </c>
       <c r="H2" s="32">
-        <f>G2-E2</f>
-        <v>-106807.24000000002</v>
+        <f>G2*0.9</f>
+        <v>6112.8</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="28">
+        <v>45364</v>
+      </c>
+      <c r="C3" s="29">
+        <v>66000</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0.2044</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" si="0"/>
+        <v>13490.4</v>
+      </c>
+      <c r="H3" s="32">
+        <f>G3*0.9</f>
+        <v>12141.36</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45366</v>
+      </c>
+      <c r="C4" s="29">
+        <v>60000</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" si="0"/>
+        <v>15420</v>
+      </c>
+      <c r="H4" s="32">
+        <f>G4*0.9</f>
+        <v>13878</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="28">
+        <v>45371</v>
+      </c>
+      <c r="C5" s="29">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>2078</v>
+      </c>
+      <c r="H5" s="32">
+        <f>G5</f>
+        <v>2078</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="28">
+        <v>45373</v>
+      </c>
+      <c r="C6" s="29">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.13</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="H6" s="32">
+        <f>G6*0.9</f>
+        <v>2340</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="28">
+        <v>45379</v>
+      </c>
+      <c r="C7" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.215</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="0"/>
+        <v>2150</v>
+      </c>
+      <c r="H7" s="32">
+        <f>G7*0.9</f>
+        <v>1935</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="28">
+        <v>45380</v>
+      </c>
+      <c r="C8" s="29">
+        <v>50000</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="0"/>
+        <v>6845</v>
+      </c>
+      <c r="H8" s="32">
+        <f>G8*0.9</f>
+        <v>6160.5</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32">
+        <f>SUM(H2:H8)</f>
+        <v>44645.66</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="28">
+        <v>45719</v>
+      </c>
+      <c r="C10" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="30">
+        <v>2.9</v>
+      </c>
+      <c r="E10" s="31">
+        <v>29064.23</v>
+      </c>
+      <c r="F10" s="37">
+        <v>2.82</v>
+      </c>
+      <c r="G10" s="31">
+        <v>28137.54</v>
+      </c>
+      <c r="H10" s="32">
+        <f t="shared" ref="H10" si="1">G10-E10</f>
+        <v>-926.68999999999869</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32">
+        <f>SUM(E10:E10)</f>
+        <v>29064.23</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="32">
+        <f>SUM(G10:G10)</f>
+        <v>28137.54</v>
+      </c>
+      <c r="H11" s="32">
+        <f>SUM(H10:H10)</f>
+        <v>-926.68999999999869</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="34">
+        <f>H9+H11</f>
+        <v>43718.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="32">
+        <v>6104.3000000000102</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="34">
+        <f>SUM(H12,H13)</f>
+        <v>49823.270000000011</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="35">
+        <v>209350</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="35">
+        <v>49000</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="32">
+        <f>H15+H16</f>
+        <v>258350</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="36">
+        <f>H14-H17</f>
+        <v>-208526.72999999998</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="L19" s="6"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B64914-ACBB-4D20-87ED-E769BFD61729}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A1" s="38">
+        <v>501000</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="28">
+        <v>45527</v>
+      </c>
+      <c r="C2" s="29">
+        <v>600</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="31">
+        <f>C2*F2</f>
+        <v>1500</v>
+      </c>
+      <c r="H2" s="32">
+        <f>G2*0.9</f>
+        <v>1350</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="7"/>
@@ -983,31 +1514,17 @@
       <c r="M2" s="15"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="28">
-        <v>45705</v>
-      </c>
-      <c r="C3" s="29">
-        <v>1500</v>
-      </c>
-      <c r="D3" s="79">
-        <v>12</v>
-      </c>
-      <c r="E3" s="79">
-        <v>18039.87</v>
-      </c>
-      <c r="F3" s="30">
-        <v>7.35</v>
-      </c>
-      <c r="G3" s="31">
-        <v>11000.58</v>
-      </c>
-      <c r="H3" s="32">
-        <f>G3-E3</f>
-        <v>-7039.2899999999991</v>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="41">
+        <f>SUM(H2:H2)</f>
+        <v>1350</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="7"/>
@@ -1016,41 +1533,532 @@
       <c r="M3" s="15"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45525</v>
+      </c>
+      <c r="C4" s="29">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="30">
+        <v>8.6</v>
+      </c>
+      <c r="E4" s="31">
+        <v>43095.24</v>
+      </c>
+      <c r="F4" s="30">
+        <v>10.1</v>
+      </c>
+      <c r="G4" s="31">
+        <v>50388.14</v>
+      </c>
       <c r="H4" s="32">
-        <f>SUM(H2,H3)</f>
-        <v>-113846.53000000001</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <f>G4-E4</f>
+        <v>7292.9000000000015</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="28">
+        <v>45526</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1500</v>
+      </c>
+      <c r="D5" s="30">
+        <v>11.5</v>
+      </c>
+      <c r="E5" s="31">
+        <v>17288.21</v>
+      </c>
+      <c r="F5" s="30">
+        <v>14.9</v>
+      </c>
+      <c r="G5" s="31">
+        <v>22300.5</v>
+      </c>
+      <c r="H5" s="32">
+        <f>G5-E5</f>
+        <v>5012.2900000000009</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="28">
+        <v>45530</v>
+      </c>
+      <c r="C6" s="29">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="30">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E6" s="31">
+        <v>44097.46</v>
+      </c>
+      <c r="F6" s="30">
+        <v>10.3</v>
+      </c>
+      <c r="G6" s="31">
+        <v>51385.93</v>
+      </c>
+      <c r="H6" s="32">
+        <f>G6-E6</f>
+        <v>7288.4700000000012</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="28">
+        <v>45531</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1800</v>
+      </c>
+      <c r="D7" s="30">
+        <v>13</v>
+      </c>
+      <c r="E7" s="31">
+        <v>23451.83</v>
+      </c>
+      <c r="F7" s="30">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G7" s="31">
+        <v>29454.61</v>
+      </c>
+      <c r="H7" s="32">
+        <f>G7-E7</f>
+        <v>6002.7799999999988</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32">
+        <f>SUM(E4:E7)</f>
+        <v>127932.74</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="32">
+        <f t="shared" ref="G8:H8" si="0">SUM(G4:G7)</f>
+        <v>153529.18</v>
+      </c>
+      <c r="H8" s="32">
+        <f t="shared" si="0"/>
+        <v>25596.440000000002</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="41">
+        <f>H3+H8</f>
+        <v>26946.440000000002</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="32">
+        <v>224227.14000000004</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="41">
+        <f>H9+H10</f>
+        <v>251173.58000000005</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="35">
+        <v>508580</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="35">
+        <v>65590</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="41">
+        <f>H12+H13</f>
+        <v>574170</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="47">
+        <f>H11-H14</f>
+        <v>-322996.41999999993</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="38">
+        <v>501000</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="6"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="42">
+        <f>H15+H16</f>
+        <v>178003.58000000007</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C21" s="12"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="10"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N7">
+    <sortCondition ref="B4:B7"/>
+    <sortCondition ref="A4:A7"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7779AD-9FD4-4875-AFE3-40C7C57A50BD}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="28">
+        <v>44736</v>
+      </c>
+      <c r="C2" s="29">
+        <v>40000</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="37">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="G2" s="31">
+        <f>C2*F2</f>
+        <v>6223.9999999999991</v>
+      </c>
+      <c r="H2" s="32">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="34">
+        <f>SUM(H2:H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45128</v>
+      </c>
+      <c r="C4" s="29">
+        <v>400</v>
+      </c>
+      <c r="D4" s="30">
+        <v>155</v>
+      </c>
+      <c r="E4" s="31">
+        <v>62137.32</v>
+      </c>
+      <c r="F4" s="30">
+        <v>167</v>
+      </c>
+      <c r="G4" s="31">
+        <v>66652.039999999994</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="28"/>
       <c r="C5" s="29"/>
       <c r="D5" s="33"/>
-      <c r="E5" s="32"/>
+      <c r="E5" s="32">
+        <f>SUM(E4:E4)</f>
+        <v>62137.32</v>
+      </c>
       <c r="F5" s="30"/>
-      <c r="G5" s="63" t="s">
-        <v>13</v>
+      <c r="G5" s="32">
+        <f>SUM(G4:G4)</f>
+        <v>66652.039999999994</v>
       </c>
       <c r="H5" s="32">
-        <f>H4</f>
-        <v>-113846.53000000001</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(H4:H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A6" s="26"/>
       <c r="B6" s="28"/>
       <c r="C6" s="29"/>
@@ -1058,16 +2066,20 @@
       <c r="E6" s="32"/>
       <c r="F6" s="30"/>
       <c r="G6" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="32">
-        <v>321444.99525200005</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="H6" s="34">
+        <f>H3+H5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
@@ -1075,17 +2087,16 @@
       <c r="E7" s="32"/>
       <c r="F7" s="30"/>
       <c r="G7" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="41">
-        <f>SUM(H5,H6)</f>
-        <v>207598.46525200002</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H7" s="32">
+        <v>224227.14000000004</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="28"/>
       <c r="C8" s="29"/>
@@ -1093,16 +2104,17 @@
       <c r="E8" s="32"/>
       <c r="F8" s="30"/>
       <c r="G8" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="35">
-        <v>43930</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H8" s="34">
+        <f>H6+H7</f>
+        <v>224227.14000000004</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
@@ -1110,16 +2122,16 @@
       <c r="E9" s="32"/>
       <c r="F9" s="30"/>
       <c r="G9" s="32" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="35">
-        <v>35090</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>430160</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
@@ -1127,17 +2139,16 @@
       <c r="E10" s="32"/>
       <c r="F10" s="30"/>
       <c r="G10" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="41">
-        <f>H8+H9</f>
-        <v>79020</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="H10" s="35">
+        <v>78420</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A11" s="26"/>
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
@@ -1145,47 +2156,691 @@
       <c r="E11" s="32"/>
       <c r="F11" s="30"/>
       <c r="G11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="41">
+        <f>H9+H10</f>
+        <v>508580</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="36">
-        <f>H7-H10</f>
-        <v>128578.46525200002</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="G12" s="38" t="s">
+      <c r="H12" s="46">
+        <f>H8-H11</f>
+        <v>-284352.86</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="38">
-        <v>57000</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G13" s="38" t="s">
+      <c r="H13" s="38">
+        <v>501000</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="48">
-        <f>H11+H12</f>
-        <v>185578.46525200002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="H14" s="39">
+        <f>H12+H13</f>
+        <v>216647.14</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="10"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5A78CF-C3FD-4A01-A4AA-1A01BA055806}">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="28">
+        <v>45450</v>
+      </c>
+      <c r="C2" s="29">
+        <v>30000</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="37">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2:G8" si="0">C2*F2</f>
+        <v>6666</v>
+      </c>
+      <c r="H2" s="40">
+        <f>G2*0.9</f>
+        <v>5999.4000000000005</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28">
+        <v>45450</v>
+      </c>
+      <c r="C3" s="29">
+        <v>20000</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37">
+        <v>0.1915</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" si="0"/>
+        <v>3830</v>
+      </c>
+      <c r="H3" s="40">
+        <f>G3*0.9</f>
+        <v>3447</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45455</v>
+      </c>
+      <c r="C4" s="29">
+        <v>7200</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="72">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="H4" s="40">
+        <f>G4*0.9</f>
+        <v>1134</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="28">
+        <v>45456</v>
+      </c>
+      <c r="C5" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="37">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>2867</v>
+      </c>
+      <c r="H5" s="40">
+        <f>G5*0.9</f>
+        <v>2580.3000000000002</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="28">
+        <v>45456</v>
+      </c>
+      <c r="C6" s="29">
+        <v>66000</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="37">
+        <v>0.1915</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="0"/>
+        <v>12639</v>
+      </c>
+      <c r="H6" s="40">
+        <f>G6*0.9</f>
+        <v>11375.1</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="28">
+        <v>45457</v>
+      </c>
+      <c r="C7" s="29">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="73">
+        <v>0.1099</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="0"/>
+        <v>2198</v>
+      </c>
+      <c r="H7" s="40">
+        <f>G7</f>
+        <v>2198</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="28">
+        <v>45467</v>
+      </c>
+      <c r="C8" s="29">
+        <v>50000</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="73">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="0"/>
+        <v>6859.9999999999991</v>
+      </c>
+      <c r="H8" s="40">
+        <f>G8*0.9</f>
+        <v>6173.9999999999991</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="43">
+        <f>SUM(H2:H8)</f>
+        <v>32907.800000000003</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="28">
+        <v>45448</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1800</v>
+      </c>
+      <c r="D10" s="30">
+        <v>13.9</v>
+      </c>
+      <c r="E10" s="71">
+        <v>25075.42</v>
+      </c>
+      <c r="F10" s="30">
+        <v>14.6</v>
+      </c>
+      <c r="G10" s="31">
+        <v>26221.79</v>
+      </c>
+      <c r="H10" s="32">
+        <f t="shared" ref="H10" si="1">G10-E10</f>
+        <v>1146.3700000000026</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32">
+        <f>SUM(E10:E10)</f>
+        <v>25075.42</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32">
+        <f>SUM(G10:G10)</f>
+        <v>26221.79</v>
+      </c>
+      <c r="H11" s="41">
+        <f>SUM(H10:H10)</f>
+        <v>1146.3700000000026</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="43">
+        <f>H9+H11</f>
+        <v>34054.170000000006</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="32">
+        <v>190172.97000000003</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="34">
+        <f>H12+H13</f>
+        <v>224227.14000000004</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="35">
+        <v>343000</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="35">
+        <v>87160</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="41">
+        <f>H15+H16</f>
+        <v>430160</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="46">
+        <f>H14-H17</f>
+        <v>-205932.85999999996</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A19" s="5"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="38">
+        <v>501000</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A20" s="6"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="39">
+        <f>H18+H19</f>
+        <v>295067.14</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K26" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N8">
+    <sortCondition ref="B2:B8"/>
+    <sortCondition ref="A2:A8"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AEDC17-A0FD-4C5F-9E38-7572886638C2}">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -2170,7 +3825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1845BDB-D516-46D6-8D8D-8AAF831D4343}">
   <dimension ref="A1:N23"/>
   <sheetViews>
@@ -2661,7 +4316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554ED3F5-6E87-4EB3-94FA-6B0AD1441A5E}">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -3137,7 +4792,783 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F818BAB4-5237-4BD8-9A61-131DACEE1BB2}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="12" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="28">
+        <v>45705</v>
+      </c>
+      <c r="C2" s="29">
+        <v>4500</v>
+      </c>
+      <c r="D2" s="80">
+        <v>31</v>
+      </c>
+      <c r="E2" s="80">
+        <v>139808.98000000001</v>
+      </c>
+      <c r="F2" s="30">
+        <v>7.35</v>
+      </c>
+      <c r="G2" s="83">
+        <v>33001.74</v>
+      </c>
+      <c r="H2" s="84">
+        <f>G2-E2</f>
+        <v>-106807.24000000002</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="28">
+        <v>45705</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="80">
+        <v>12</v>
+      </c>
+      <c r="E3" s="80">
+        <v>18039.87</v>
+      </c>
+      <c r="F3" s="30">
+        <v>7.35</v>
+      </c>
+      <c r="G3" s="83">
+        <v>11000.58</v>
+      </c>
+      <c r="H3" s="84">
+        <f>G3-E3</f>
+        <v>-7039.2899999999991</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45712</v>
+      </c>
+      <c r="C4" s="29">
+        <v>15000</v>
+      </c>
+      <c r="D4" s="81">
+        <v>10.9</v>
+      </c>
+      <c r="E4" s="80">
+        <v>163862.14000000001</v>
+      </c>
+      <c r="F4" s="30">
+        <v>2.94</v>
+      </c>
+      <c r="G4" s="85">
+        <v>44002.32</v>
+      </c>
+      <c r="H4" s="84">
+        <f>G4-E4</f>
+        <v>-119859.82</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="28">
+        <v>45712</v>
+      </c>
+      <c r="C5" s="29">
+        <v>12000</v>
+      </c>
+      <c r="D5" s="81">
+        <v>10</v>
+      </c>
+      <c r="E5" s="80">
+        <v>120265.79</v>
+      </c>
+      <c r="F5" s="30">
+        <v>2.94</v>
+      </c>
+      <c r="G5" s="85">
+        <v>35201.86</v>
+      </c>
+      <c r="H5" s="84">
+        <f>G5-E5</f>
+        <v>-85063.93</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="28">
+        <v>45712</v>
+      </c>
+      <c r="C6" s="29">
+        <v>9000</v>
+      </c>
+      <c r="D6" s="81">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E6" s="80">
+        <v>83885.39</v>
+      </c>
+      <c r="F6" s="30">
+        <v>2.94</v>
+      </c>
+      <c r="G6" s="85">
+        <v>26401.4</v>
+      </c>
+      <c r="H6" s="84">
+        <f>G6-E6</f>
+        <v>-57483.99</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84">
+        <f>SUM(H2:H6)</f>
+        <v>-376254.27</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="84">
+        <f>H7</f>
+        <v>-376254.27</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="84">
+        <v>321444.99525200005</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="86">
+        <f>SUM(H8,H9)</f>
+        <v>-54809.274747999967</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="87">
+        <v>43930</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="87">
+        <v>58500</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="86">
+        <f>H11+H12</f>
+        <v>102430</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="88">
+        <f>H10-H13</f>
+        <v>-157239.27474799997</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="84">
+        <v>57000</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="89">
+        <f>H14+H15</f>
+        <v>-100239.27474799997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="84">
+        <f>H15-H13</f>
+        <v>-45430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32283096-5907-4E30-9E76-682BE04B55EC}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="28">
+        <v>45288</v>
+      </c>
+      <c r="C2" s="29">
+        <v>22500</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="37">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2" si="0">C2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="32">
+        <f>G2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32">
+        <f>SUM(H2,H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45295</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="30">
+        <v>21.7</v>
+      </c>
+      <c r="E4" s="31">
+        <v>43496.13</v>
+      </c>
+      <c r="F4" s="30">
+        <v>22.9</v>
+      </c>
+      <c r="G4" s="31">
+        <v>45698.55</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32">
+        <f>SUM(E4:E4)</f>
+        <v>43496.13</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="32">
+        <f>SUM(G4:G4)</f>
+        <v>45698.55</v>
+      </c>
+      <c r="H5" s="32">
+        <f>SUM(H4:H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="34">
+        <f>H3+H5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="32">
+        <v>308374.99525200005</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="41">
+        <f>H6+H7</f>
+        <v>308374.99525200005</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="35">
+        <v>43930</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="41">
+        <f>H9+H10</f>
+        <v>43930</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="36">
+        <f>H8-H11</f>
+        <v>264444.99525200005</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="38">
+        <v>57000</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="48">
+        <f>H12+H13</f>
+        <v>321444.99525200005</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="6"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593B7B16-DC84-4911-8D38-10F40FE455E7}">
   <dimension ref="A1:N14"/>
   <sheetViews>
@@ -3496,350 +5927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32283096-5907-4E30-9E76-682BE04B55EC}">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13:H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="28">
-        <v>45288</v>
-      </c>
-      <c r="C2" s="29">
-        <v>22500</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="37">
-        <v>0</v>
-      </c>
-      <c r="G2" s="31">
-        <f t="shared" ref="G2" si="0">C2*F2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="32">
-        <f>G2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32">
-        <f>SUM(H2,H2)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="28">
-        <v>45295</v>
-      </c>
-      <c r="C4" s="29">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="30">
-        <v>21.7</v>
-      </c>
-      <c r="E4" s="31">
-        <v>43496.13</v>
-      </c>
-      <c r="F4" s="30">
-        <v>22.9</v>
-      </c>
-      <c r="G4" s="31">
-        <v>45698.55</v>
-      </c>
-      <c r="H4" s="32">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32">
-        <f>SUM(E4:E4)</f>
-        <v>43496.13</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32">
-        <f>SUM(G4:G4)</f>
-        <v>45698.55</v>
-      </c>
-      <c r="H5" s="32">
-        <f>SUM(H4:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="34">
-        <f>H3+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="32">
-        <v>308374.99525200005</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="41">
-        <f>H6+H7</f>
-        <v>308374.99525200005</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="35">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="35">
-        <v>43930</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="41">
-        <f>H9+H10</f>
-        <v>43930</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="36">
-        <f>H8-H11</f>
-        <v>264444.99525200005</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="38">
-        <v>57000</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="48">
-        <f>H12+H13</f>
-        <v>321444.99525200005</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="6"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70859943-B961-4C68-A873-2ACB6A8732BB}">
   <dimension ref="A1:N28"/>
   <sheetViews>
@@ -4532,7 +6620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7988E558-09BF-4546-BFFB-0E642120F5F9}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -4907,7 +6995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E8D5A8-C6BD-47CE-94D2-6F0DD38CBCC4}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -5276,7 +7364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04FE74-71A4-490B-8947-83CEB1364CED}">
   <dimension ref="A1:N41"/>
   <sheetViews>
@@ -6437,1422 +8525,4 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B64914-ACBB-4D20-87ED-E769BFD61729}">
-  <dimension ref="A1:N21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A1" s="38">
-        <v>501000</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A2" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="28">
-        <v>45527</v>
-      </c>
-      <c r="C2" s="29">
-        <v>600</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="31">
-        <f>C2*F2</f>
-        <v>1500</v>
-      </c>
-      <c r="H2" s="32">
-        <f>G2*0.9</f>
-        <v>1350</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="41">
-        <f>SUM(H2:H2)</f>
-        <v>1350</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="28">
-        <v>45525</v>
-      </c>
-      <c r="C4" s="29">
-        <v>5000</v>
-      </c>
-      <c r="D4" s="30">
-        <v>8.6</v>
-      </c>
-      <c r="E4" s="31">
-        <v>43095.24</v>
-      </c>
-      <c r="F4" s="30">
-        <v>10.1</v>
-      </c>
-      <c r="G4" s="31">
-        <v>50388.14</v>
-      </c>
-      <c r="H4" s="32">
-        <f>G4-E4</f>
-        <v>7292.9000000000015</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="28">
-        <v>45526</v>
-      </c>
-      <c r="C5" s="29">
-        <v>1500</v>
-      </c>
-      <c r="D5" s="30">
-        <v>11.5</v>
-      </c>
-      <c r="E5" s="31">
-        <v>17288.21</v>
-      </c>
-      <c r="F5" s="30">
-        <v>14.9</v>
-      </c>
-      <c r="G5" s="31">
-        <v>22300.5</v>
-      </c>
-      <c r="H5" s="32">
-        <f>G5-E5</f>
-        <v>5012.2900000000009</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="28">
-        <v>45530</v>
-      </c>
-      <c r="C6" s="29">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="30">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E6" s="31">
-        <v>44097.46</v>
-      </c>
-      <c r="F6" s="30">
-        <v>10.3</v>
-      </c>
-      <c r="G6" s="31">
-        <v>51385.93</v>
-      </c>
-      <c r="H6" s="32">
-        <f>G6-E6</f>
-        <v>7288.4700000000012</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="28">
-        <v>45531</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1800</v>
-      </c>
-      <c r="D7" s="30">
-        <v>13</v>
-      </c>
-      <c r="E7" s="31">
-        <v>23451.83</v>
-      </c>
-      <c r="F7" s="30">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G7" s="31">
-        <v>29454.61</v>
-      </c>
-      <c r="H7" s="32">
-        <f>G7-E7</f>
-        <v>6002.7799999999988</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32">
-        <f>SUM(E4:E7)</f>
-        <v>127932.74</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32">
-        <f t="shared" ref="G8:H8" si="0">SUM(G4:G7)</f>
-        <v>153529.18</v>
-      </c>
-      <c r="H8" s="32">
-        <f t="shared" si="0"/>
-        <v>25596.440000000002</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="41">
-        <f>H3+H8</f>
-        <v>26946.440000000002</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="32">
-        <v>224227.14000000004</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="41">
-        <f>H9+H10</f>
-        <v>251173.58000000005</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="35">
-        <v>508580</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="35">
-        <v>65590</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="26"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="41">
-        <f>H12+H13</f>
-        <v>574170</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="47">
-        <f>H11-H14</f>
-        <v>-322996.41999999993</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="38">
-        <v>501000</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="42">
-        <f>H15+H16</f>
-        <v>178003.58000000007</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C21" s="12"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="10"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N7">
-    <sortCondition ref="B4:B7"/>
-    <sortCondition ref="A4:A7"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7779AD-9FD4-4875-AFE3-40C7C57A50BD}">
-  <dimension ref="A1:N18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="28">
-        <v>44736</v>
-      </c>
-      <c r="C2" s="29">
-        <v>40000</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="37">
-        <v>0.15559999999999999</v>
-      </c>
-      <c r="G2" s="31">
-        <f>C2*F2</f>
-        <v>6223.9999999999991</v>
-      </c>
-      <c r="H2" s="32">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="34">
-        <f>SUM(H2:H2)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A4" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="28">
-        <v>45128</v>
-      </c>
-      <c r="C4" s="29">
-        <v>400</v>
-      </c>
-      <c r="D4" s="30">
-        <v>155</v>
-      </c>
-      <c r="E4" s="31">
-        <v>62137.32</v>
-      </c>
-      <c r="F4" s="30">
-        <v>167</v>
-      </c>
-      <c r="G4" s="31">
-        <v>66652.039999999994</v>
-      </c>
-      <c r="H4" s="32">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32">
-        <f>SUM(E4:E4)</f>
-        <v>62137.32</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32">
-        <f>SUM(G4:G4)</f>
-        <v>66652.039999999994</v>
-      </c>
-      <c r="H5" s="32">
-        <f>SUM(H4:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="34">
-        <f>H3+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="32">
-        <v>224227.14000000004</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="34">
-        <f>H6+H7</f>
-        <v>224227.14000000004</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="35">
-        <v>430160</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="35">
-        <v>78420</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="41">
-        <f>H9+H10</f>
-        <v>508580</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="46">
-        <f>H8-H11</f>
-        <v>-284352.86</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="38">
-        <v>501000</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="39">
-        <f>H12+H13</f>
-        <v>216647.14</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="12"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="10"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5A78CF-C3FD-4A01-A4AA-1A01BA055806}">
-  <dimension ref="A1:N26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A2" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="28">
-        <v>45450</v>
-      </c>
-      <c r="C2" s="29">
-        <v>30000</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="37">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="G2" s="31">
-        <f t="shared" ref="G2:G8" si="0">C2*F2</f>
-        <v>6666</v>
-      </c>
-      <c r="H2" s="40">
-        <f>G2*0.9</f>
-        <v>5999.4000000000005</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A3" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="28">
-        <v>45450</v>
-      </c>
-      <c r="C3" s="29">
-        <v>20000</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="37">
-        <v>0.1915</v>
-      </c>
-      <c r="G3" s="31">
-        <f t="shared" si="0"/>
-        <v>3830</v>
-      </c>
-      <c r="H3" s="40">
-        <f>G3*0.9</f>
-        <v>3447</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A4" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="28">
-        <v>45455</v>
-      </c>
-      <c r="C4" s="29">
-        <v>7200</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="72">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G4" s="31">
-        <f t="shared" si="0"/>
-        <v>1260</v>
-      </c>
-      <c r="H4" s="40">
-        <f>G4*0.9</f>
-        <v>1134</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="28">
-        <v>45456</v>
-      </c>
-      <c r="C5" s="29">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="37">
-        <v>0.28670000000000001</v>
-      </c>
-      <c r="G5" s="31">
-        <f t="shared" si="0"/>
-        <v>2867</v>
-      </c>
-      <c r="H5" s="40">
-        <f>G5*0.9</f>
-        <v>2580.3000000000002</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="28">
-        <v>45456</v>
-      </c>
-      <c r="C6" s="29">
-        <v>66000</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37">
-        <v>0.1915</v>
-      </c>
-      <c r="G6" s="31">
-        <f t="shared" si="0"/>
-        <v>12639</v>
-      </c>
-      <c r="H6" s="40">
-        <f>G6*0.9</f>
-        <v>11375.1</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="28">
-        <v>45457</v>
-      </c>
-      <c r="C7" s="29">
-        <v>20000</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="73">
-        <v>0.1099</v>
-      </c>
-      <c r="G7" s="31">
-        <f t="shared" si="0"/>
-        <v>2198</v>
-      </c>
-      <c r="H7" s="40">
-        <f>G7</f>
-        <v>2198</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="28">
-        <v>45467</v>
-      </c>
-      <c r="C8" s="29">
-        <v>50000</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="73">
-        <v>0.13719999999999999</v>
-      </c>
-      <c r="G8" s="31">
-        <f t="shared" si="0"/>
-        <v>6859.9999999999991</v>
-      </c>
-      <c r="H8" s="40">
-        <f>G8*0.9</f>
-        <v>6173.9999999999991</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="43">
-        <f>SUM(H2:H8)</f>
-        <v>32907.800000000003</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="28">
-        <v>45448</v>
-      </c>
-      <c r="C10" s="29">
-        <v>1800</v>
-      </c>
-      <c r="D10" s="30">
-        <v>13.9</v>
-      </c>
-      <c r="E10" s="71">
-        <v>25075.42</v>
-      </c>
-      <c r="F10" s="30">
-        <v>14.6</v>
-      </c>
-      <c r="G10" s="31">
-        <v>26221.79</v>
-      </c>
-      <c r="H10" s="32">
-        <f t="shared" ref="H10" si="1">G10-E10</f>
-        <v>1146.3700000000026</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32">
-        <f>SUM(E10:E10)</f>
-        <v>25075.42</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32">
-        <f>SUM(G10:G10)</f>
-        <v>26221.79</v>
-      </c>
-      <c r="H11" s="41">
-        <f>SUM(H10:H10)</f>
-        <v>1146.3700000000026</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="43">
-        <f>H9+H11</f>
-        <v>34054.170000000006</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A13" s="26"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="32">
-        <v>190172.97000000003</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A14" s="26"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="34">
-        <f>H12+H13</f>
-        <v>224227.14000000004</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A15" s="26"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="35">
-        <v>343000</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="35">
-        <v>87160</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="41">
-        <f>H15+H16</f>
-        <v>430160</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="46">
-        <f>H14-H17</f>
-        <v>-205932.85999999996</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="38">
-        <v>501000</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="39">
-        <f>H18+H19</f>
-        <v>295067.14</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K26" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N8">
-    <sortCondition ref="B2:B8"/>
-    <sortCondition ref="A2:A8"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6399" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B462628-1558-4D32-ADB0-8FC051F812E8}"/>
+  <xr:revisionPtr revIDLastSave="6464" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0000416E-B925-4960-B70E-C83AF3FC0383}"/>
   <bookViews>
-    <workbookView xWindow="4104" yWindow="900" windowWidth="19032" windowHeight="11628" tabRatio="445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="564" yWindow="0" windowWidth="22476" windowHeight="12336" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JUN25" sheetId="86" r:id="rId1"/>
-    <sheet name="MAY25" sheetId="85" r:id="rId2"/>
-    <sheet name="APR25" sheetId="84" r:id="rId3"/>
-    <sheet name="MAR25" sheetId="83" r:id="rId4"/>
-    <sheet name="FEB25" sheetId="82" r:id="rId5"/>
-    <sheet name="JAN25" sheetId="81" r:id="rId6"/>
-    <sheet name="DEC24" sheetId="80" r:id="rId7"/>
-    <sheet name="NOV24" sheetId="79" r:id="rId8"/>
-    <sheet name="OCT24" sheetId="78" r:id="rId9"/>
-    <sheet name="SEP24" sheetId="77" r:id="rId10"/>
-    <sheet name="AUG24" sheetId="76" r:id="rId11"/>
-    <sheet name="JUL24" sheetId="75" r:id="rId12"/>
+    <sheet name="JUL25" sheetId="87" r:id="rId1"/>
+    <sheet name="JUN25" sheetId="86" r:id="rId2"/>
+    <sheet name="MAY25" sheetId="85" r:id="rId3"/>
+    <sheet name="APR25" sheetId="84" r:id="rId4"/>
+    <sheet name="MAR25" sheetId="83" r:id="rId5"/>
+    <sheet name="FEB25" sheetId="82" r:id="rId6"/>
+    <sheet name="JAN25" sheetId="81" r:id="rId7"/>
+    <sheet name="DEC24" sheetId="80" r:id="rId8"/>
+    <sheet name="NOV24" sheetId="79" r:id="rId9"/>
+    <sheet name="OCT24" sheetId="78" r:id="rId10"/>
+    <sheet name="SEP24" sheetId="77" r:id="rId11"/>
+    <sheet name="AUG24" sheetId="76" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -202,9 +202,6 @@
     <t>June Exp</t>
   </si>
   <si>
-    <t>BBL</t>
-  </si>
-  <si>
     <t>JuLY Exp</t>
   </si>
   <si>
@@ -252,12 +249,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="187" formatCode="0.000"/>
+    <numFmt numFmtId="188" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="190" formatCode="0.0000"/>
+    <numFmt numFmtId="191" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="192" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -335,14 +332,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -367,20 +364,20 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -391,7 +388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -437,16 +434,16 @@
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -454,24 +451,24 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="191" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -479,39 +476,39 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="191" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="189" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="190" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,27 +520,27 @@
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="189" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="192" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="191" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -909,30 +906,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAFE1F0-60EA-46C8-9C11-E7180F21BFAA}">
-  <dimension ref="A1:N29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7193655-9E82-4E5C-9879-086AA4339AB9}">
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.625" style="6"/>
   </cols>
   <sheetData>
@@ -961,286 +958,292 @@
       <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="7"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" s="28">
-        <v>45812</v>
+        <v>44736</v>
       </c>
       <c r="C2" s="29">
-        <v>55000</v>
+        <v>40000</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="37">
-        <v>0.2505</v>
+        <v>0.15559999999999999</v>
       </c>
       <c r="G2" s="31">
         <f>C2*F2</f>
-        <v>13777.5</v>
-      </c>
-      <c r="H2" s="40">
-        <f>G2*0.9</f>
-        <v>12399.75</v>
+        <v>6223.9999999999991</v>
+      </c>
+      <c r="H2" s="32">
+        <v>0</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="17"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="28">
-        <v>45814</v>
-      </c>
-      <c r="C3" s="29">
-        <v>12500</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="31"/>
-      <c r="F3" s="54">
-        <v>0.215</v>
-      </c>
-      <c r="G3" s="31">
-        <f>C3*F3</f>
-        <v>2687.5</v>
-      </c>
-      <c r="H3" s="40">
-        <f>G3*0.9</f>
-        <v>2418.75</v>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="34">
+        <f>SUM(H2:H2)</f>
+        <v>0</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="17"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B4" s="28">
-        <v>45814</v>
+        <v>45128</v>
       </c>
       <c r="C4" s="29">
-        <v>20000</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="37">
-        <v>0.1915</v>
+        <v>1800</v>
+      </c>
+      <c r="D4" s="30">
+        <v>20</v>
+      </c>
+      <c r="E4" s="31">
+        <v>36000</v>
+      </c>
+      <c r="F4" s="30">
+        <v>22.9</v>
       </c>
       <c r="G4" s="31">
-        <f>C4*F4</f>
-        <v>3830</v>
-      </c>
-      <c r="H4" s="40">
-        <f>G4*0.9</f>
-        <v>3447</v>
+        <v>41220</v>
+      </c>
+      <c r="H4" s="32">
+        <f>G4-E4</f>
+        <v>5220</v>
       </c>
       <c r="I4" s="11"/>
-      <c r="J4" s="17"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A5" s="27" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5" s="28">
-        <v>45817</v>
+        <v>45128</v>
       </c>
       <c r="C5" s="29">
-        <v>40000</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="37">
-        <v>0.22220000000000001</v>
+        <v>10000</v>
+      </c>
+      <c r="D5" s="30">
+        <v>4.7</v>
+      </c>
+      <c r="E5" s="31">
+        <v>47000</v>
+      </c>
+      <c r="F5" s="30">
+        <v>5.5</v>
       </c>
       <c r="G5" s="31">
-        <f>C5*F5</f>
-        <v>8888</v>
-      </c>
-      <c r="H5" s="40">
-        <f>G5*0.9</f>
-        <v>7999.2</v>
+        <v>55000</v>
+      </c>
+      <c r="H5" s="32">
+        <f>G5-E5</f>
+        <v>8000</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="17"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A6" s="27" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B6" s="28">
-        <v>45820</v>
+        <v>45128</v>
       </c>
       <c r="C6" s="29">
-        <v>75000</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="55">
-        <v>0.19839999999999999</v>
+        <v>1000</v>
+      </c>
+      <c r="D6" s="30">
+        <v>87</v>
+      </c>
+      <c r="E6" s="31">
+        <v>87000</v>
+      </c>
+      <c r="F6" s="30">
+        <v>22.9</v>
       </c>
       <c r="G6" s="31">
-        <f>C6*F6</f>
-        <v>14880</v>
-      </c>
-      <c r="H6" s="40">
-        <f>G6*0.9</f>
-        <v>13392</v>
+        <v>22900</v>
+      </c>
+      <c r="H6" s="32">
+        <f>G6-E6</f>
+        <v>-64100</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="17"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A7" s="27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" s="28">
-        <v>45820</v>
+        <v>45128</v>
       </c>
       <c r="C7" s="29">
-        <v>7200</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="54">
-        <v>0.17499999999999999</v>
+        <v>1000</v>
+      </c>
+      <c r="D7" s="30">
+        <v>87</v>
+      </c>
+      <c r="E7" s="31">
+        <v>87000</v>
+      </c>
+      <c r="F7" s="30">
+        <v>22.4</v>
       </c>
       <c r="G7" s="31">
-        <f>C7*F7</f>
-        <v>1260</v>
-      </c>
-      <c r="H7" s="40">
-        <f>G7*0.9</f>
-        <v>1134</v>
+        <v>22400</v>
+      </c>
+      <c r="H7" s="32">
+        <f>G7-E7</f>
+        <v>-64600</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="17"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A8" s="27" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B8" s="28">
-        <v>45824</v>
+        <v>45128</v>
       </c>
       <c r="C8" s="29">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="55">
-        <v>0.1176</v>
+        <v>1000</v>
+      </c>
+      <c r="D8" s="30">
+        <v>87</v>
+      </c>
+      <c r="E8" s="31">
+        <v>87000</v>
+      </c>
+      <c r="F8" s="30">
+        <v>22.2</v>
       </c>
       <c r="G8" s="31">
-        <f>C8*F8</f>
-        <v>2352</v>
-      </c>
-      <c r="H8" s="40">
-        <f>G8</f>
-        <v>2352</v>
+        <v>22200</v>
+      </c>
+      <c r="H8" s="32">
+        <f>G8-E8</f>
+        <v>-64800</v>
       </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="17"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A9" s="27" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B9" s="28">
-        <v>45833</v>
+        <v>45128</v>
       </c>
       <c r="C9" s="29">
-        <v>60000</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="54">
-        <v>0.13250000000000001</v>
+        <v>1000</v>
+      </c>
+      <c r="D9" s="30">
+        <v>87</v>
+      </c>
+      <c r="E9" s="31">
+        <v>87000</v>
+      </c>
+      <c r="F9" s="30">
+        <v>21.7</v>
       </c>
       <c r="G9" s="31">
-        <f>C9*F9</f>
-        <v>7950</v>
-      </c>
-      <c r="H9" s="40">
-        <f>G9*0.9</f>
-        <v>7155</v>
+        <v>21700</v>
+      </c>
+      <c r="H9" s="32">
+        <f>G9-E9</f>
+        <v>-65300</v>
       </c>
       <c r="I9" s="11"/>
-      <c r="J9" s="17"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="43">
-        <f>SUM(H2:H9)</f>
-        <v>50297.7</v>
+      <c r="A10" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="28">
+        <v>45128</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="30">
+        <v>81</v>
+      </c>
+      <c r="E10" s="31">
+        <v>81000</v>
+      </c>
+      <c r="F10" s="30">
+        <v>21</v>
+      </c>
+      <c r="G10" s="31">
+        <v>21000</v>
+      </c>
+      <c r="H10" s="32">
+        <f>G10-E10</f>
+        <v>-60000</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
@@ -1248,26 +1251,26 @@
         <v>39</v>
       </c>
       <c r="B11" s="28">
-        <v>45824</v>
+        <v>45128</v>
       </c>
       <c r="C11" s="29">
         <v>1000</v>
       </c>
       <c r="D11" s="30">
-        <v>67</v>
-      </c>
-      <c r="E11" s="53">
-        <v>67148.399999999994</v>
+        <v>81</v>
+      </c>
+      <c r="E11" s="31">
+        <v>81000</v>
       </c>
       <c r="F11" s="30">
-        <v>16.600000000000001</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G11" s="31">
-        <v>16563.23</v>
+        <v>19600</v>
       </c>
       <c r="H11" s="32">
-        <f t="shared" ref="H11:H12" si="0">G11-E11</f>
-        <v>-50585.17</v>
+        <f>G11-E11</f>
+        <v>-61400</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="7"/>
@@ -1278,29 +1281,29 @@
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A12" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" s="28">
-        <v>45826</v>
+        <v>45128</v>
       </c>
       <c r="C12" s="29">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="D12" s="30">
-        <v>67</v>
-      </c>
-      <c r="E12" s="53">
-        <v>67148.399999999994</v>
+        <v>9</v>
+      </c>
+      <c r="E12" s="31">
+        <v>22500</v>
       </c>
       <c r="F12" s="30">
-        <v>16.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G12" s="31">
-        <v>16762.79</v>
+        <v>25500</v>
       </c>
       <c r="H12" s="32">
-        <f t="shared" si="0"/>
-        <v>-50385.609999999993</v>
+        <f>G12-E12</f>
+        <v>3000</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="7"/>
@@ -1309,65 +1312,54 @@
       <c r="M12" s="15"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="28">
-        <v>45828</v>
-      </c>
-      <c r="C13" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="30">
-        <v>67</v>
-      </c>
-      <c r="E13" s="53">
-        <v>67148.399999999994</v>
-      </c>
-      <c r="F13" s="30">
-        <v>16.8</v>
-      </c>
-      <c r="G13" s="31">
-        <v>16762.79</v>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32">
+        <f>SUM(E4:E12)</f>
+        <v>615500</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32">
+        <f t="shared" ref="G13:H13" si="0">SUM(G4:G12)</f>
+        <v>251520</v>
       </c>
       <c r="H13" s="32">
-        <f t="shared" ref="H13" si="1">G13-E13</f>
-        <v>-50385.609999999993</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
+        <f t="shared" si="0"/>
+        <v>-363980</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A14" s="26"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="32">
-        <f>SUM(E13:E13)</f>
-        <v>67148.399999999994</v>
-      </c>
+      <c r="E14" s="32"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="32">
-        <f>SUM(G13:G13)</f>
-        <v>16762.79</v>
-      </c>
-      <c r="H14" s="41">
-        <f>SUM(H11:H13)</f>
-        <v>-151356.38999999998</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
+      <c r="G14" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="34">
+        <f>H3+H13</f>
+        <v>-363980</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="7">
+        <v>-101058.68999999999</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
@@ -1375,24 +1367,22 @@
       <c r="E15" s="32"/>
       <c r="F15" s="30"/>
       <c r="G15" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="43">
-        <f>H10+H14</f>
-        <v>-101058.68999999999</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H15" s="32">
+        <v>-187350.93</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="7">
-        <v>76255.710000000021</v>
+        <v>-86292.24</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+    </row>
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
@@ -1400,23 +1390,23 @@
       <c r="E16" s="32"/>
       <c r="F16" s="30"/>
       <c r="G16" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="32">
-        <v>-86292.24</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="H16" s="34">
+        <f>H14+H15</f>
+        <v>-551330.92999999993</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="J16" s="7">
-        <v>-162547.95474799996</v>
+        <v>-187350.93</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+    </row>
+    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
@@ -1424,24 +1414,22 @@
       <c r="E17" s="32"/>
       <c r="F17" s="30"/>
       <c r="G17" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="34">
-        <f>H15+H16</f>
-        <v>-187350.93</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="H17" s="35">
+        <v>377810</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="J17" s="7">
-        <v>-86292.244747999939</v>
+        <v>336660</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+    </row>
+    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
@@ -1449,21 +1437,20 @@
       <c r="E18" s="32"/>
       <c r="F18" s="30"/>
       <c r="G18" s="32" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H18" s="35">
-        <v>336660</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>13</v>
+        <v>10000</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="J18" s="7">
-        <v>327260</v>
+        <v>41150</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A19" s="26"/>
@@ -1473,16 +1460,17 @@
       <c r="E19" s="32"/>
       <c r="F19" s="30"/>
       <c r="G19" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="35">
-        <v>41150</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="H19" s="41">
+        <f>H17+H18</f>
+        <v>387810</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="J19" s="7">
-        <v>9400</v>
+        <v>377810</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="15"/>
@@ -1490,24 +1478,24 @@
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="41">
-        <f>H18+H19</f>
-        <v>377810</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H20" s="46">
+        <f>H16-H19</f>
+        <v>-939140.92999999993</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="J20" s="7">
-        <v>336660</v>
+        <v>-565160.92999999993</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="15"/>
@@ -1521,18 +1509,17 @@
       <c r="D21" s="9"/>
       <c r="E21" s="7"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="46">
-        <f>H17-H20</f>
-        <v>-565160.92999999993</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>15</v>
+      <c r="G21" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="38">
+        <v>57000</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="J21" s="7">
-        <v>-422952.24474799994</v>
+        <v>57000</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="15"/>
@@ -1540,81 +1527,54 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="10"/>
       <c r="G22" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="38">
-        <v>57000</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H22" s="39">
+        <f>H20+H21</f>
+        <v>-882140.92999999993</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="J22" s="7">
-        <v>57000</v>
+        <v>-508160.92999999993</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="39">
-        <f>H21+H22</f>
-        <v>-508160.92999999993</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="7">
-        <v>-365952.24474799994</v>
-      </c>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K23" s="7"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="12"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="10"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="7"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K29" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N9">
-    <sortCondition ref="B2:B9"/>
-    <sortCondition ref="A2:A9"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -1622,6 +1582,375 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E8D5A8-C6BD-47CE-94D2-6F0DD38CBCC4}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="28">
+        <v>45576</v>
+      </c>
+      <c r="C2" s="29">
+        <v>6800</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="55">
+        <v>0.24</v>
+      </c>
+      <c r="G2" s="31">
+        <f>C2*F2</f>
+        <v>1632</v>
+      </c>
+      <c r="H2" s="56">
+        <f>G2*0.9</f>
+        <v>1468.8</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="34">
+        <f>SUM(H2:H2)</f>
+        <v>1468.8</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45590</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="30">
+        <v>12</v>
+      </c>
+      <c r="E4" s="31">
+        <v>19756.14</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>19756.14</v>
+      </c>
+      <c r="H4" s="40">
+        <f>G4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32">
+        <f>SUM(E4:E4)</f>
+        <v>19756.14</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="32">
+        <f>SUM(G4:G4)</f>
+        <v>19756.14</v>
+      </c>
+      <c r="H5" s="40">
+        <f>SUM(H4:H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="34">
+        <f>H3+H5</f>
+        <v>1468.8</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="32">
+        <v>316673.09525200003</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="41">
+        <f>H6+H7</f>
+        <v>318141.89525200002</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="35">
+        <v>614170</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="35">
+        <v>60880</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="41">
+        <f>H9+H10</f>
+        <v>675050</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="45">
+        <f>H8-H11</f>
+        <v>-356908.10474799998</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="38">
+        <v>668000</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="42">
+        <f>H12+H13</f>
+        <v>311091.89525200002</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="10"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04FE74-71A4-490B-8947-83CEB1364CED}">
   <dimension ref="A1:N41"/>
   <sheetViews>
@@ -2440,7 +2769,7 @@
     </row>
     <row r="26" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="28">
         <v>45555</v>
@@ -2608,7 +2937,7 @@
       <c r="E33" s="32"/>
       <c r="F33" s="30"/>
       <c r="G33" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="35">
         <v>24140</v>
@@ -2735,7 +3064,7 @@
     </row>
     <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="28">
         <v>45530</v>
@@ -2784,7 +3113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B64914-ACBB-4D20-87ED-E769BFD61729}">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -2846,7 +3175,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="28">
         <v>45527</v>
@@ -3130,7 +3459,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="35">
         <v>65590</v>
@@ -3256,31 +3585,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7779AD-9FD4-4875-AFE3-40C7C57A50BD}">
-  <dimension ref="A1:N18"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAFE1F0-60EA-46C8-9C11-E7180F21BFAA}">
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.25" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.625" style="6"/>
   </cols>
   <sheetData>
@@ -3309,220 +3638,313 @@
       <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="7"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="28">
-        <v>44736</v>
+        <v>45812</v>
       </c>
       <c r="C2" s="29">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="37">
-        <v>0.15559999999999999</v>
+        <v>0.2505</v>
       </c>
       <c r="G2" s="31">
-        <f>C2*F2</f>
-        <v>6223.9999999999991</v>
-      </c>
-      <c r="H2" s="32">
-        <v>0</v>
+        <f t="shared" ref="G2:G9" si="0">C2*F2</f>
+        <v>13777.5</v>
+      </c>
+      <c r="H2" s="40">
+        <f t="shared" ref="H2:H7" si="1">G2*0.9</f>
+        <v>12399.75</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="7"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="A3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="28">
+        <v>45814</v>
+      </c>
+      <c r="C3" s="29">
+        <v>12500</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="31"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="34">
-        <f>SUM(H2:H2)</f>
-        <v>0</v>
+      <c r="F3" s="54">
+        <v>0.215</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" si="0"/>
+        <v>2687.5</v>
+      </c>
+      <c r="H3" s="40">
+        <f t="shared" si="1"/>
+        <v>2418.75</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B4" s="28">
-        <v>45128</v>
+        <v>45814</v>
       </c>
       <c r="C4" s="29">
-        <v>400</v>
-      </c>
-      <c r="D4" s="30">
-        <v>155</v>
-      </c>
-      <c r="E4" s="31">
-        <v>62137.32</v>
-      </c>
-      <c r="F4" s="30">
-        <v>167</v>
+        <v>20000</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="37">
+        <v>0.1915</v>
       </c>
       <c r="G4" s="31">
-        <v>66652.039999999994</v>
-      </c>
-      <c r="H4" s="32">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3830</v>
+      </c>
+      <c r="H4" s="40">
+        <f t="shared" si="1"/>
+        <v>3447</v>
       </c>
       <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32">
-        <f>SUM(E4:E4)</f>
-        <v>62137.32</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32">
-        <f>SUM(G4:G4)</f>
-        <v>66652.039999999994</v>
-      </c>
-      <c r="H5" s="32">
-        <f>SUM(H4:H4)</f>
-        <v>0</v>
-      </c>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="28">
+        <v>45817</v>
+      </c>
+      <c r="C5" s="29">
+        <v>40000</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="37">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>8888</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" si="1"/>
+        <v>7999.2</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="34">
-        <f>H3+H5</f>
-        <v>0</v>
+      <c r="A6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="28">
+        <v>45820</v>
+      </c>
+      <c r="C6" s="29">
+        <v>75000</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="55">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="0"/>
+        <v>14880</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" si="1"/>
+        <v>13392</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="32">
-        <v>224227.14000000004</v>
-      </c>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="28">
+        <v>45820</v>
+      </c>
+      <c r="C7" s="29">
+        <v>7200</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="54">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="H7" s="40">
+        <f t="shared" si="1"/>
+        <v>1134</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="34">
-        <f>H6+H7</f>
-        <v>224227.14000000004</v>
-      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="28">
+        <v>45824</v>
+      </c>
+      <c r="C8" s="29">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="55">
+        <v>0.1176</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="0"/>
+        <v>2352</v>
+      </c>
+      <c r="H8" s="40">
+        <f>G8</f>
+        <v>2352</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="35">
-        <v>430160</v>
-      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="28">
+        <v>45833</v>
+      </c>
+      <c r="C9" s="29">
+        <v>60000</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="54">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="0"/>
+        <v>7950</v>
+      </c>
+      <c r="H9" s="40">
+        <f>G9*0.9</f>
+        <v>7155</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A10" s="27"/>
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="30"/>
-      <c r="G10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="35">
-        <v>78420</v>
-      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="43">
+        <f>SUM(H2:H9)</f>
+        <v>50297.7</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="41">
-        <f>H9+H10</f>
-        <v>508580</v>
+      <c r="A11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="28">
+        <v>45824</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="30">
+        <v>67</v>
+      </c>
+      <c r="E11" s="53">
+        <v>67148.399999999994</v>
+      </c>
+      <c r="F11" s="30">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G11" s="31">
+        <v>16563.23</v>
+      </c>
+      <c r="H11" s="32">
+        <f t="shared" ref="H11:H12" si="2">G11-E11</f>
+        <v>-50585.17</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="7"/>
@@ -3532,18 +3954,30 @@
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="46">
-        <f>H8-H11</f>
-        <v>-284352.86</v>
+      <c r="A12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="28">
+        <v>45826</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="30">
+        <v>67</v>
+      </c>
+      <c r="E12" s="53">
+        <v>67148.399999999994</v>
+      </c>
+      <c r="F12" s="30">
+        <v>16.8</v>
+      </c>
+      <c r="G12" s="31">
+        <v>16762.79</v>
+      </c>
+      <c r="H12" s="32">
+        <f t="shared" si="2"/>
+        <v>-50385.609999999993</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="7"/>
@@ -3553,17 +3987,30 @@
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="38">
-        <v>501000</v>
+      <c r="A13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="28">
+        <v>45828</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="30">
+        <v>67</v>
+      </c>
+      <c r="E13" s="53">
+        <v>67148.399999999994</v>
+      </c>
+      <c r="F13" s="30">
+        <v>16.8</v>
+      </c>
+      <c r="G13" s="31">
+        <v>16762.79</v>
+      </c>
+      <c r="H13" s="32">
+        <f t="shared" ref="H13" si="3">G13-E13</f>
+        <v>-50385.609999999993</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="7"/>
@@ -3573,18 +4020,22 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="39">
-        <f>H12+H13</f>
-        <v>216647.14</v>
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="32">
+        <f>SUM(E13:E13)</f>
+        <v>67148.399999999994</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="32">
+        <f>SUM(G13:G13)</f>
+        <v>16762.79</v>
+      </c>
+      <c r="H14" s="41">
+        <f>SUM(H11:H13)</f>
+        <v>-151356.38999999998</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="7"/>
@@ -3593,41 +4044,265 @@
       <c r="M14" s="15"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="43">
+        <f>H10+H14</f>
+        <v>-101058.68999999999</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="7">
+        <v>76255.710000000021</v>
+      </c>
       <c r="K15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="12"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="10"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="11"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="32">
+        <v>-86292.24</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="7">
+        <v>-162547.95474799996</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="34">
+        <f>H15+H16</f>
+        <v>-187350.93</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-86292.244747999939</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="35">
+        <v>336660</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="7">
+        <v>327260</v>
+      </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="35">
+        <v>41150</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="7">
+        <v>9400</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="41">
+        <f>H18+H19</f>
+        <v>377810</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="7">
+        <v>336660</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="46">
+        <f>H17-H20</f>
+        <v>-565160.92999999993</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="7">
+        <v>-422952.24474799994</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A22" s="5"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="38">
+        <v>57000</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="7">
+        <v>57000</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A23" s="6"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="39">
+        <f>H21+H22</f>
+        <v>-508160.92999999993</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="7">
+        <v>-365952.24474799994</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K29" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N9">
+    <sortCondition ref="B2:B9"/>
+    <sortCondition ref="A2:A9"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E1A231-79A5-4BE4-8C0C-F5E13A4831EB}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I21" sqref="I21:I29"/>
     </sheetView>
@@ -3916,7 +4591,7 @@
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A9" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="79">
         <v>45793</v>
@@ -4540,7 +5215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F07CE69-5C67-4DF2-B5BE-CD5590D6A395}">
   <dimension ref="A1:N22"/>
   <sheetViews>
@@ -5056,7 +5731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779217B5-9CE8-46BD-8B22-71F5AA3AD105}">
   <dimension ref="A1:L20"/>
   <sheetViews>
@@ -5550,7 +6225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F818BAB4-5237-4BD8-9A61-131DACEE1BB2}">
   <dimension ref="A1:N19"/>
   <sheetViews>
@@ -5882,7 +6557,7 @@
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
       <c r="F13" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="66" t="s">
         <v>14</v>
@@ -5920,7 +6595,7 @@
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
       <c r="F15" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>32</v>
@@ -5964,10 +6639,10 @@
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
       <c r="F18" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="72" t="s">
         <v>63</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>64</v>
       </c>
       <c r="H18" s="66">
         <f>H15-H13</f>
@@ -5983,7 +6658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32283096-5907-4E30-9E76-682BE04B55EC}">
   <dimension ref="A1:N14"/>
   <sheetViews>
@@ -6224,7 +6899,7 @@
       <c r="E10" s="32"/>
       <c r="F10" s="30"/>
       <c r="G10" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="35">
         <v>43930</v>
@@ -6326,7 +7001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70859943-B961-4C68-A873-2ACB6A8732BB}">
   <dimension ref="A1:N28"/>
   <sheetViews>
@@ -6893,7 +7568,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="30"/>
       <c r="G20" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" s="35">
         <v>38000</v>
@@ -7019,7 +7694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7988E558-09BF-4546-BFFB-0E642120F5F9}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -7272,7 +7947,7 @@
       <c r="E10" s="32"/>
       <c r="F10" s="30"/>
       <c r="G10" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="35">
         <v>26320</v>
@@ -7392,373 +8067,4 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E8D5A8-C6BD-47CE-94D2-6F0DD38CBCC4}">
-  <dimension ref="A1:N18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A2" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="28">
-        <v>45576</v>
-      </c>
-      <c r="C2" s="29">
-        <v>6800</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="55">
-        <v>0.24</v>
-      </c>
-      <c r="G2" s="31">
-        <f>C2*F2</f>
-        <v>1632</v>
-      </c>
-      <c r="H2" s="56">
-        <f>G2*0.9</f>
-        <v>1468.8</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="34">
-        <f>SUM(H2:H2)</f>
-        <v>1468.8</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="28">
-        <v>45590</v>
-      </c>
-      <c r="C4" s="29">
-        <v>1500</v>
-      </c>
-      <c r="D4" s="30">
-        <v>12</v>
-      </c>
-      <c r="E4" s="31">
-        <v>19756.14</v>
-      </c>
-      <c r="F4" s="30">
-        <v>0</v>
-      </c>
-      <c r="G4" s="31">
-        <v>19756.14</v>
-      </c>
-      <c r="H4" s="40">
-        <f>G4-E4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32">
-        <f>SUM(E4:E4)</f>
-        <v>19756.14</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32">
-        <f>SUM(G4:G4)</f>
-        <v>19756.14</v>
-      </c>
-      <c r="H5" s="40">
-        <f>SUM(H4:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="34">
-        <f>H3+H5</f>
-        <v>1468.8</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="32">
-        <v>316673.09525200003</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="41">
-        <f>H6+H7</f>
-        <v>318141.89525200002</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="35">
-        <v>614170</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="35">
-        <v>60880</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="41">
-        <f>H9+H10</f>
-        <v>675050</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="45">
-        <f>H8-H11</f>
-        <v>-356908.10474799998</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="38">
-        <v>668000</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="42">
-        <f>H12+H13</f>
-        <v>311091.89525200002</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="12"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="10"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6464" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0000416E-B925-4960-B70E-C83AF3FC0383}"/>
+  <xr:revisionPtr revIDLastSave="6504" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{633FFD6A-BC52-48AC-AEF4-62A0874264ED}"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="0" windowWidth="22476" windowHeight="12336" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="2088" windowWidth="17904" windowHeight="9960" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JUL25" sheetId="87" r:id="rId1"/>
@@ -249,12 +249,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="187" formatCode="0.000"/>
-    <numFmt numFmtId="188" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="190" formatCode="0.0000"/>
-    <numFmt numFmtId="191" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="192" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -332,14 +332,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -364,20 +364,20 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -388,7 +388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -434,16 +434,16 @@
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -451,24 +451,24 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -476,39 +476,39 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="191" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="189" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="190" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,27 +520,27 @@
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="189" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="192" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -910,8 +910,8 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1020,7 +1020,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="28">
-        <v>45128</v>
+        <v>45868</v>
       </c>
       <c r="C4" s="29">
         <v>1800</v>
@@ -1029,17 +1029,17 @@
         <v>20</v>
       </c>
       <c r="E4" s="31">
-        <v>36000</v>
+        <v>36079.74</v>
       </c>
       <c r="F4" s="30">
         <v>22.9</v>
       </c>
       <c r="G4" s="31">
-        <v>41220</v>
+        <v>41128.699999999997</v>
       </c>
       <c r="H4" s="32">
         <f>G4-E4</f>
-        <v>5220</v>
+        <v>5048.9599999999991</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="7"/>
@@ -1053,7 +1053,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="28">
-        <v>45128</v>
+        <v>45868</v>
       </c>
       <c r="C5" s="29">
         <v>10000</v>
@@ -1062,17 +1062,17 @@
         <v>4.7</v>
       </c>
       <c r="E5" s="31">
-        <v>47000</v>
+        <v>47104.1</v>
       </c>
       <c r="F5" s="30">
         <v>5.5</v>
       </c>
       <c r="G5" s="31">
-        <v>55000</v>
+        <v>54878.18</v>
       </c>
       <c r="H5" s="32">
         <f>G5-E5</f>
-        <v>8000</v>
+        <v>7774.0800000000017</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="7"/>
@@ -1086,7 +1086,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="28">
-        <v>45128</v>
+        <v>45867</v>
       </c>
       <c r="C6" s="29">
         <v>1000</v>
@@ -1095,17 +1095,17 @@
         <v>87</v>
       </c>
       <c r="E6" s="31">
-        <v>87000</v>
+        <v>87192.7</v>
       </c>
       <c r="F6" s="30">
         <v>22.9</v>
       </c>
       <c r="G6" s="31">
-        <v>22900</v>
+        <v>22849.279999999999</v>
       </c>
       <c r="H6" s="32">
         <f>G6-E6</f>
-        <v>-64100</v>
+        <v>-64343.42</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="7"/>
@@ -1119,7 +1119,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="28">
-        <v>45128</v>
+        <v>45862</v>
       </c>
       <c r="C7" s="29">
         <v>1000</v>
@@ -1128,17 +1128,17 @@
         <v>87</v>
       </c>
       <c r="E7" s="31">
-        <v>87000</v>
+        <v>87192.7</v>
       </c>
       <c r="F7" s="30">
         <v>22.4</v>
       </c>
       <c r="G7" s="31">
-        <v>22400</v>
+        <v>22350.38</v>
       </c>
       <c r="H7" s="32">
         <f>G7-E7</f>
-        <v>-64600</v>
+        <v>-64842.319999999992</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="7"/>
@@ -1152,7 +1152,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="28">
-        <v>45128</v>
+        <v>45856</v>
       </c>
       <c r="C8" s="29">
         <v>1000</v>
@@ -1161,17 +1161,17 @@
         <v>87</v>
       </c>
       <c r="E8" s="31">
-        <v>87000</v>
+        <v>87192.7</v>
       </c>
       <c r="F8" s="30">
         <v>22.2</v>
       </c>
       <c r="G8" s="31">
-        <v>22200</v>
+        <v>22150.83</v>
       </c>
       <c r="H8" s="32">
         <f>G8-E8</f>
-        <v>-64800</v>
+        <v>-65041.869999999995</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="7"/>
@@ -1185,7 +1185,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="28">
-        <v>45128</v>
+        <v>45854</v>
       </c>
       <c r="C9" s="29">
         <v>1000</v>
@@ -1194,17 +1194,17 @@
         <v>87</v>
       </c>
       <c r="E9" s="31">
-        <v>87000</v>
+        <v>87192.7</v>
       </c>
       <c r="F9" s="30">
         <v>21.7</v>
       </c>
       <c r="G9" s="31">
-        <v>21700</v>
+        <v>21651.94</v>
       </c>
       <c r="H9" s="32">
         <f>G9-E9</f>
-        <v>-65300</v>
+        <v>-65540.759999999995</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="7"/>
@@ -1218,7 +1218,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="28">
-        <v>45128</v>
+        <v>45841</v>
       </c>
       <c r="C10" s="29">
         <v>1000</v>
@@ -1227,17 +1227,17 @@
         <v>81</v>
       </c>
       <c r="E10" s="31">
-        <v>81000</v>
+        <v>81179.41</v>
       </c>
       <c r="F10" s="30">
         <v>21</v>
       </c>
       <c r="G10" s="31">
-        <v>21000</v>
+        <v>20953.490000000002</v>
       </c>
       <c r="H10" s="32">
         <f>G10-E10</f>
-        <v>-60000</v>
+        <v>-60225.919999999998</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="7"/>
@@ -1248,29 +1248,29 @@
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A11" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="28">
-        <v>45128</v>
+        <v>45841</v>
       </c>
       <c r="C11" s="29">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="D11" s="30">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="E11" s="31">
-        <v>81000</v>
+        <v>22549.84</v>
       </c>
       <c r="F11" s="30">
-        <v>19.600000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G11" s="31">
-        <v>19600</v>
+        <v>25443.51</v>
       </c>
       <c r="H11" s="32">
         <f>G11-E11</f>
-        <v>-61400</v>
+        <v>2893.6699999999983</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="7"/>
@@ -1281,29 +1281,29 @@
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A12" s="27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B12" s="28">
-        <v>45128</v>
+        <v>45840</v>
       </c>
       <c r="C12" s="29">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="30">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E12" s="31">
-        <v>22500</v>
+        <v>81179.41</v>
       </c>
       <c r="F12" s="30">
-        <v>10.199999999999999</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G12" s="31">
-        <v>25500</v>
+        <v>19556.59</v>
       </c>
       <c r="H12" s="32">
         <f>G12-E12</f>
-        <v>3000</v>
+        <v>-61622.820000000007</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="7"/>
@@ -1319,16 +1319,16 @@
       <c r="D13" s="33"/>
       <c r="E13" s="32">
         <f>SUM(E4:E12)</f>
-        <v>615500</v>
+        <v>616863.30000000005</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="32">
         <f t="shared" ref="G13:H13" si="0">SUM(G4:G12)</f>
-        <v>251520</v>
+        <v>250962.9</v>
       </c>
       <c r="H13" s="32">
         <f t="shared" si="0"/>
-        <v>-363980</v>
+        <v>-365900.39999999997</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="15"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="H14" s="34">
         <f>H3+H13</f>
-        <v>-363980</v>
+        <v>-365900.39999999997</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>12</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="H16" s="34">
         <f>H14+H15</f>
-        <v>-551330.92999999993</v>
+        <v>-553251.32999999996</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>30</v>
@@ -1440,7 +1440,7 @@
         <v>51</v>
       </c>
       <c r="H18" s="35">
-        <v>10000</v>
+        <v>8610</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>50</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="41">
         <f>H17+H18</f>
-        <v>387810</v>
+        <v>386420</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>14</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="H20" s="46">
         <f>H16-H19</f>
-        <v>-939140.92999999993</v>
+        <v>-939671.33</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>15</v>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="H22" s="39">
         <f>H20+H21</f>
-        <v>-882140.92999999993</v>
+        <v>-882671.33</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>33</v>
@@ -1575,6 +1575,10 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H12">
+    <sortCondition descending="1" ref="B4:B12"/>
+    <sortCondition ref="A4:A12"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -3590,7 +3594,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G15" sqref="G15:H23"/>
     </sheetView>
   </sheetViews>

--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6504" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{633FFD6A-BC52-48AC-AEF4-62A0874264ED}"/>
+  <xr:revisionPtr revIDLastSave="6566" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCBD3024-C19B-4DFF-ACC1-23175F412BBE}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2088" windowWidth="17904" windowHeight="9960" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="2148" windowWidth="18996" windowHeight="9948" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JUL25" sheetId="87" r:id="rId1"/>
-    <sheet name="JUN25" sheetId="86" r:id="rId2"/>
-    <sheet name="MAY25" sheetId="85" r:id="rId3"/>
-    <sheet name="APR25" sheetId="84" r:id="rId4"/>
-    <sheet name="MAR25" sheetId="83" r:id="rId5"/>
-    <sheet name="FEB25" sheetId="82" r:id="rId6"/>
-    <sheet name="JAN25" sheetId="81" r:id="rId7"/>
-    <sheet name="DEC24" sheetId="80" r:id="rId8"/>
-    <sheet name="NOV24" sheetId="79" r:id="rId9"/>
-    <sheet name="OCT24" sheetId="78" r:id="rId10"/>
-    <sheet name="SEP24" sheetId="77" r:id="rId11"/>
-    <sheet name="AUG24" sheetId="76" r:id="rId12"/>
+    <sheet name="AUG25" sheetId="88" r:id="rId1"/>
+    <sheet name="AUG24" sheetId="76" r:id="rId2"/>
+    <sheet name="JUL25" sheetId="87" r:id="rId3"/>
+    <sheet name="JUN25" sheetId="86" r:id="rId4"/>
+    <sheet name="MAY25" sheetId="85" r:id="rId5"/>
+    <sheet name="APR25" sheetId="84" r:id="rId6"/>
+    <sheet name="MAR25" sheetId="83" r:id="rId7"/>
+    <sheet name="FEB25" sheetId="82" r:id="rId8"/>
+    <sheet name="JAN25" sheetId="81" r:id="rId9"/>
+    <sheet name="DEC24" sheetId="80" r:id="rId10"/>
+    <sheet name="NOV24" sheetId="79" r:id="rId11"/>
+    <sheet name="OCT24" sheetId="78" r:id="rId12"/>
+    <sheet name="SEP24" sheetId="77" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -431,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -542,6 +543,7 @@
     <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,6 +559,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -906,17 +912,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7193655-9E82-4E5C-9879-086AA4339AB9}">
-  <dimension ref="A1:N26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961B3AB4-C9A4-46F9-AED6-DC61A66CC09A}">
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
     <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
@@ -924,7 +930,7 @@
     <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.875" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
@@ -967,27 +973,28 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B2" s="28">
-        <v>44736</v>
+        <v>45897</v>
       </c>
       <c r="C2" s="29">
-        <v>40000</v>
+        <v>600</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="31"/>
-      <c r="F2" s="37">
-        <v>0.15559999999999999</v>
+      <c r="F2" s="82">
+        <v>2.5</v>
       </c>
       <c r="G2" s="31">
         <f>C2*F2</f>
-        <v>6223.9999999999991</v>
+        <v>1500</v>
       </c>
       <c r="H2" s="32">
-        <v>0</v>
+        <f>G2*0.9</f>
+        <v>1350</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="7"/>
@@ -996,7 +1003,1278 @@
       <c r="M2" s="15"/>
       <c r="N2" s="6"/>
     </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="41">
+        <f>SUM(H2:H2)</f>
+        <v>1350</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45874</v>
+      </c>
+      <c r="C4" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="30">
+        <v>1.88</v>
+      </c>
+      <c r="E4" s="31">
+        <v>18841.64</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1.9</v>
+      </c>
+      <c r="G4" s="31">
+        <v>18957.919999999998</v>
+      </c>
+      <c r="H4" s="32">
+        <f>G4-E4</f>
+        <v>116.27999999999884</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="28">
+        <v>45875</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2800</v>
+      </c>
+      <c r="D5" s="30">
+        <v>10.5</v>
+      </c>
+      <c r="E5" s="31">
+        <v>29465.119999999999</v>
+      </c>
+      <c r="F5" s="30">
+        <v>11.6</v>
+      </c>
+      <c r="G5" s="31">
+        <v>32408.06</v>
+      </c>
+      <c r="H5" s="32">
+        <f>G5-E5</f>
+        <v>2942.9400000000023</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="28">
+        <v>45875</v>
+      </c>
+      <c r="C6" s="29">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="30">
+        <v>3.9</v>
+      </c>
+      <c r="E6" s="31">
+        <v>19543.2</v>
+      </c>
+      <c r="F6" s="30">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="G6" s="31">
+        <v>22549.95</v>
+      </c>
+      <c r="H6" s="32">
+        <f>G6-E6</f>
+        <v>3006.75</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="28">
+        <v>45876</v>
+      </c>
+      <c r="C7" s="29">
+        <v>3200</v>
+      </c>
+      <c r="D7" s="30">
+        <v>9.25</v>
+      </c>
+      <c r="E7" s="31">
+        <v>29665.56</v>
+      </c>
+      <c r="F7" s="30">
+        <v>9.4</v>
+      </c>
+      <c r="G7" s="31">
+        <v>30013.37</v>
+      </c>
+      <c r="H7" s="32">
+        <f>G7-E7</f>
+        <v>347.80999999999767</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="28">
+        <v>45876</v>
+      </c>
+      <c r="C8" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="30">
+        <v>1.85</v>
+      </c>
+      <c r="E8" s="31">
+        <v>18540.98</v>
+      </c>
+      <c r="F8" s="30">
+        <v>2.06</v>
+      </c>
+      <c r="G8" s="31">
+        <v>20554.38</v>
+      </c>
+      <c r="H8" s="32">
+        <f>G8-E8</f>
+        <v>2013.4000000000015</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="28">
+        <v>45877</v>
+      </c>
+      <c r="C9" s="29">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="30">
+        <v>27.75</v>
+      </c>
+      <c r="E9" s="31">
+        <v>83434.39</v>
+      </c>
+      <c r="F9" s="30">
+        <v>31</v>
+      </c>
+      <c r="G9" s="31">
+        <v>92794.01</v>
+      </c>
+      <c r="H9" s="32">
+        <f>G9-E9</f>
+        <v>9359.6199999999953</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32">
+        <f>SUM(E4:E9)</f>
+        <v>199490.88999999998</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32">
+        <f>SUM(G4:G9)</f>
+        <v>217277.69</v>
+      </c>
+      <c r="H10" s="32">
+        <f>SUM(H4:H9)</f>
+        <v>17786.799999999996</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="41">
+        <f>H3+H10</f>
+        <v>19136.799999999996</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="7">
+        <v>-365900.39999999997</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="32">
+        <v>-553251.32999999996</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="7">
+        <v>-187350.93</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="41">
+        <f>H11+H12</f>
+        <v>-534114.52999999991</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="7">
+        <v>-553251.32999999996</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="7">
+        <v>386420</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="7">
+        <v>377810</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="35">
+        <v>30000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="7">
+        <v>8610</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="41">
+        <f>H14+H15</f>
+        <v>416420</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="7">
+        <v>386420</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="47">
+        <f>H13-H16</f>
+        <v>-950534.52999999991</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-939671.33</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="7">
+        <v>57000</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="7">
+        <v>57000</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="42">
+        <f>H17+H18</f>
+        <v>-893534.52999999991</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="7">
+        <v>-882671.33</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="12"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="10"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70859943-B961-4C68-A873-2ACB6A8732BB}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="28">
+        <v>45632</v>
+      </c>
+      <c r="C2" s="29">
+        <v>35000</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="37">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2:G12" si="0">C2*F2</f>
+        <v>7777</v>
+      </c>
+      <c r="H2" s="40">
+        <f t="shared" ref="H2:H11" si="1">G2*0.9</f>
+        <v>6999.3</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="6"/>
+    </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="28">
+        <v>45632</v>
+      </c>
+      <c r="C3" s="29">
+        <v>27000</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+      <c r="H3" s="40">
+        <f t="shared" si="1"/>
+        <v>12150</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45637</v>
+      </c>
+      <c r="C4" s="29">
+        <v>7200</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="37">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="H4" s="40">
+        <f t="shared" si="1"/>
+        <v>1134</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="28">
+        <v>45638</v>
+      </c>
+      <c r="C5" s="29">
+        <v>55000</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="37">
+        <v>0.2213</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>12171.5</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" si="1"/>
+        <v>10954.35</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="28">
+        <v>45638</v>
+      </c>
+      <c r="C6" s="29">
+        <v>3600</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="28">
+        <v>45639</v>
+      </c>
+      <c r="C7" s="29">
+        <v>12500</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="37">
+        <v>0.215</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="0"/>
+        <v>2687.5</v>
+      </c>
+      <c r="H7" s="40">
+        <f t="shared" si="1"/>
+        <v>2418.75</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="28">
+        <v>45639</v>
+      </c>
+      <c r="C8" s="29">
+        <v>50000</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="37">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="H8" s="40">
+        <f t="shared" si="1"/>
+        <v>945</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="28">
+        <v>45639</v>
+      </c>
+      <c r="C9" s="29">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="37">
+        <v>0.193</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="0"/>
+        <v>3860</v>
+      </c>
+      <c r="H9" s="40">
+        <f t="shared" si="1"/>
+        <v>3474</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="28">
+        <v>45643</v>
+      </c>
+      <c r="C10" s="29">
+        <v>50000</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="37">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="0"/>
+        <v>11145</v>
+      </c>
+      <c r="H10" s="40">
+        <f t="shared" si="1"/>
+        <v>10030.5</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="28">
+        <v>45651</v>
+      </c>
+      <c r="C11" s="29">
+        <v>60000</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="37">
+        <v>0.19980000000000001</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" si="0"/>
+        <v>11988</v>
+      </c>
+      <c r="H11" s="40">
+        <f t="shared" si="1"/>
+        <v>10789.2</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="28">
+        <v>45653</v>
+      </c>
+      <c r="C12" s="29">
+        <v>20000</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="37">
+        <v>0.1192</v>
+      </c>
+      <c r="G12" s="31">
+        <f t="shared" si="0"/>
+        <v>2384</v>
+      </c>
+      <c r="H12" s="40">
+        <f>G12</f>
+        <v>2384</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="34">
+        <f>SUM(H2:H12)</f>
+        <v>61603.100000000006</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="28">
+        <v>37617</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
+        <v>21.3</v>
+      </c>
+      <c r="E14" s="31">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <v>21.3</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32">
+        <f t="shared" ref="H14" si="2">G14-E14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32">
+        <f>SUM(E14:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32">
+        <f>SUM(G14:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="40">
+        <f>SUM(H14:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="34">
+        <f>H13+H15</f>
+        <v>61603.100000000006</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="32">
+        <v>318141.89525200002</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="41">
+        <f>H16+H17</f>
+        <v>379744.99525200005</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="35">
+        <v>701370</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="35">
+        <v>38000</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="41">
+        <f>H19+H20</f>
+        <v>739370</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="5"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="36">
+        <f>H18-H21</f>
+        <v>-359625.00474799995</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="38">
+        <v>668000</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="6"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="48">
+        <f>H22+H23</f>
+        <v>308374.99525200005</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="12"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="10"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I12">
+    <sortCondition ref="B2:B12"/>
+    <sortCondition ref="A2:A12"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7988E558-09BF-4546-BFFB-0E642120F5F9}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="28">
+        <v>44846</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="G2" s="31">
+        <f>C2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="32">
+        <f>G2*0.9</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
@@ -1015,31 +2293,31 @@
       <c r="M3" s="15"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B4" s="28">
-        <v>45868</v>
+        <v>45590</v>
       </c>
       <c r="C4" s="29">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="D4" s="30">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E4" s="31">
-        <v>36079.74</v>
+        <v>19756.14</v>
       </c>
       <c r="F4" s="30">
-        <v>22.9</v>
+        <v>0</v>
       </c>
       <c r="G4" s="31">
-        <v>41128.699999999997</v>
-      </c>
-      <c r="H4" s="32">
+        <v>19756.14</v>
+      </c>
+      <c r="H4" s="40">
         <f>G4-E4</f>
-        <v>5048.9599999999991</v>
+        <v>0</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="7"/>
@@ -1048,64 +2326,41 @@
       <c r="M4" s="15"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A5" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="28">
-        <v>45868</v>
-      </c>
-      <c r="C5" s="29">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="30">
-        <v>4.7</v>
-      </c>
-      <c r="E5" s="31">
-        <v>47104.1</v>
-      </c>
-      <c r="F5" s="30">
-        <v>5.5</v>
-      </c>
-      <c r="G5" s="31">
-        <v>54878.18</v>
+    <row r="5" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32">
+        <f>SUM(E4:E4)</f>
+        <v>19756.14</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="32">
+        <f>SUM(G4:G4)</f>
+        <v>19756.14</v>
       </c>
       <c r="H5" s="32">
-        <f>G5-E5</f>
-        <v>7774.0800000000017</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7"/>
+        <f>SUM(H4:H4)</f>
+        <v>0</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="28">
-        <v>45867</v>
-      </c>
-      <c r="C6" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="30">
-        <v>87</v>
-      </c>
-      <c r="E6" s="31">
-        <v>87192.7</v>
-      </c>
-      <c r="F6" s="30">
-        <v>22.9</v>
-      </c>
-      <c r="G6" s="31">
-        <v>22849.279999999999</v>
-      </c>
-      <c r="H6" s="32">
-        <f>G6-E6</f>
-        <v>-64343.42</v>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="43">
+        <f>H3+H5</f>
+        <v>0</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="7"/>
@@ -1114,163 +2369,94 @@
       <c r="M6" s="15"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A7" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="28">
-        <v>45862</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="30">
-        <v>87</v>
-      </c>
-      <c r="E7" s="31">
-        <v>87192.7</v>
-      </c>
-      <c r="F7" s="30">
-        <v>22.4</v>
-      </c>
-      <c r="G7" s="31">
-        <v>22350.38</v>
+    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="H7" s="32">
-        <f>G7-E7</f>
-        <v>-64842.319999999992</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
+        <v>318141.89525200002</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A8" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="28">
-        <v>45856</v>
-      </c>
-      <c r="C8" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="30">
-        <v>87</v>
-      </c>
-      <c r="E8" s="31">
-        <v>87192.7</v>
-      </c>
-      <c r="F8" s="30">
-        <v>22.2</v>
-      </c>
-      <c r="G8" s="31">
-        <v>22150.83</v>
-      </c>
-      <c r="H8" s="32">
-        <f>G8-E8</f>
-        <v>-65041.869999999995</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="41">
+        <f>H6+H7</f>
+        <v>318141.89525200002</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A9" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="28">
-        <v>45854</v>
-      </c>
-      <c r="C9" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="30">
-        <v>87</v>
-      </c>
-      <c r="E9" s="31">
-        <v>87192.7</v>
-      </c>
-      <c r="F9" s="30">
-        <v>21.7</v>
-      </c>
-      <c r="G9" s="31">
-        <v>21651.94</v>
-      </c>
-      <c r="H9" s="32">
-        <f>G9-E9</f>
-        <v>-65540.759999999995</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="35">
+        <v>675050</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="28">
-        <v>45841</v>
-      </c>
-      <c r="C10" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="30">
-        <v>81</v>
-      </c>
-      <c r="E10" s="31">
-        <v>81179.41</v>
-      </c>
-      <c r="F10" s="30">
-        <v>21</v>
-      </c>
-      <c r="G10" s="31">
-        <v>20953.490000000002</v>
-      </c>
-      <c r="H10" s="32">
-        <f>G10-E10</f>
-        <v>-60225.919999999998</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="35">
+        <v>26320</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A11" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="28">
-        <v>45841</v>
-      </c>
-      <c r="C11" s="29">
-        <v>2500</v>
-      </c>
-      <c r="D11" s="30">
-        <v>9</v>
-      </c>
-      <c r="E11" s="31">
-        <v>22549.84</v>
-      </c>
-      <c r="F11" s="30">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G11" s="31">
-        <v>25443.51</v>
-      </c>
-      <c r="H11" s="32">
-        <f>G11-E11</f>
-        <v>2893.6699999999983</v>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="41">
+        <f>H9+H10</f>
+        <v>701370</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="7"/>
@@ -1279,31 +2465,19 @@
       <c r="M11" s="15"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="28">
-        <v>45840</v>
-      </c>
-      <c r="C12" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="30">
-        <v>81</v>
-      </c>
-      <c r="E12" s="31">
-        <v>81179.41</v>
-      </c>
-      <c r="F12" s="30">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="G12" s="31">
-        <v>19556.59</v>
-      </c>
-      <c r="H12" s="32">
-        <f>G12-E12</f>
-        <v>-61622.820000000007</v>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="45">
+        <f>H8-H11</f>
+        <v>-383228.10474799998</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="7"/>
@@ -1312,280 +2486,78 @@
       <c r="M12" s="15"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32">
-        <f>SUM(E4:E12)</f>
-        <v>616863.30000000005</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32">
-        <f t="shared" ref="G13:H13" si="0">SUM(G4:G12)</f>
-        <v>250962.9</v>
-      </c>
-      <c r="H13" s="32">
-        <f t="shared" si="0"/>
-        <v>-365900.39999999997</v>
-      </c>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="38">
+        <v>668000</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A14" s="26"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="34">
-        <f>H3+H13</f>
-        <v>-365900.39999999997</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="7">
-        <v>-101058.68999999999</v>
-      </c>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="42">
+        <f>H12+H13</f>
+        <v>284771.89525200002</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="32">
-        <v>-187350.93</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="7">
-        <v>-86292.24</v>
-      </c>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K15" s="7"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="34">
-        <f>H14+H15</f>
-        <v>-553251.32999999996</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="7">
-        <v>-187350.93</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="35">
-        <v>377810</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="7">
-        <v>336660</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="35">
-        <v>8610</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="7">
-        <v>41150</v>
-      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="10"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="41">
-        <f>H17+H18</f>
-        <v>386420</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="7">
-        <v>377810</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A20" s="5"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="46">
-        <f>H16-H19</f>
-        <v>-939671.33</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="7">
-        <v>-565160.92999999993</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="38">
-        <v>57000</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="7">
-        <v>57000</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="39">
-        <f>H20+H21</f>
-        <v>-882671.33</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="7">
-        <v>-508160.92999999993</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C26" s="12"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="10"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H12">
-    <sortCondition descending="1" ref="B4:B12"/>
-    <sortCondition ref="A4:A12"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E8D5A8-C6BD-47CE-94D2-6F0DD38CBCC4}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -1954,7 +2926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04FE74-71A4-490B-8947-83CEB1364CED}">
   <dimension ref="A1:N41"/>
   <sheetViews>
@@ -3117,7 +4089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B64914-ACBB-4D20-87ED-E769BFD61729}">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -3589,7 +4561,687 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7193655-9E82-4E5C-9879-086AA4339AB9}">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="28">
+        <v>44736</v>
+      </c>
+      <c r="C2" s="29">
+        <v>40000</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="37">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="G2" s="31">
+        <f>C2*F2</f>
+        <v>6223.9999999999991</v>
+      </c>
+      <c r="H2" s="32">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="34">
+        <f>SUM(H2:H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45868</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1800</v>
+      </c>
+      <c r="D4" s="30">
+        <v>20</v>
+      </c>
+      <c r="E4" s="31">
+        <v>36079.74</v>
+      </c>
+      <c r="F4" s="30">
+        <v>22.9</v>
+      </c>
+      <c r="G4" s="31">
+        <v>41128.699999999997</v>
+      </c>
+      <c r="H4" s="32">
+        <f t="shared" ref="H4:H12" si="0">G4-E4</f>
+        <v>5048.9599999999991</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="28">
+        <v>45868</v>
+      </c>
+      <c r="C5" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="30">
+        <v>4.7</v>
+      </c>
+      <c r="E5" s="31">
+        <v>47104.1</v>
+      </c>
+      <c r="F5" s="30">
+        <v>5.5</v>
+      </c>
+      <c r="G5" s="31">
+        <v>54878.18</v>
+      </c>
+      <c r="H5" s="32">
+        <f t="shared" si="0"/>
+        <v>7774.0800000000017</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="28">
+        <v>45867</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="30">
+        <v>87</v>
+      </c>
+      <c r="E6" s="31">
+        <v>87192.7</v>
+      </c>
+      <c r="F6" s="30">
+        <v>22.9</v>
+      </c>
+      <c r="G6" s="31">
+        <v>22849.279999999999</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="0"/>
+        <v>-64343.42</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="28">
+        <v>45862</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="30">
+        <v>87</v>
+      </c>
+      <c r="E7" s="31">
+        <v>87192.7</v>
+      </c>
+      <c r="F7" s="30">
+        <v>22.4</v>
+      </c>
+      <c r="G7" s="31">
+        <v>22350.38</v>
+      </c>
+      <c r="H7" s="32">
+        <f t="shared" si="0"/>
+        <v>-64842.319999999992</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="28">
+        <v>45856</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="30">
+        <v>87</v>
+      </c>
+      <c r="E8" s="31">
+        <v>87192.7</v>
+      </c>
+      <c r="F8" s="30">
+        <v>22.2</v>
+      </c>
+      <c r="G8" s="31">
+        <v>22150.83</v>
+      </c>
+      <c r="H8" s="32">
+        <f t="shared" si="0"/>
+        <v>-65041.869999999995</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="28">
+        <v>45854</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="30">
+        <v>87</v>
+      </c>
+      <c r="E9" s="31">
+        <v>87192.7</v>
+      </c>
+      <c r="F9" s="30">
+        <v>21.7</v>
+      </c>
+      <c r="G9" s="31">
+        <v>21651.94</v>
+      </c>
+      <c r="H9" s="32">
+        <f t="shared" si="0"/>
+        <v>-65540.759999999995</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A10" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="28">
+        <v>45841</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="30">
+        <v>81</v>
+      </c>
+      <c r="E10" s="31">
+        <v>81179.41</v>
+      </c>
+      <c r="F10" s="30">
+        <v>21</v>
+      </c>
+      <c r="G10" s="31">
+        <v>20953.490000000002</v>
+      </c>
+      <c r="H10" s="32">
+        <f t="shared" si="0"/>
+        <v>-60225.919999999998</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="28">
+        <v>45841</v>
+      </c>
+      <c r="C11" s="29">
+        <v>2500</v>
+      </c>
+      <c r="D11" s="30">
+        <v>9</v>
+      </c>
+      <c r="E11" s="31">
+        <v>22549.84</v>
+      </c>
+      <c r="F11" s="30">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G11" s="31">
+        <v>25443.51</v>
+      </c>
+      <c r="H11" s="32">
+        <f t="shared" si="0"/>
+        <v>2893.6699999999983</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="28">
+        <v>45840</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="30">
+        <v>81</v>
+      </c>
+      <c r="E12" s="31">
+        <v>81179.41</v>
+      </c>
+      <c r="F12" s="30">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G12" s="31">
+        <v>19556.59</v>
+      </c>
+      <c r="H12" s="32">
+        <f t="shared" si="0"/>
+        <v>-61622.820000000007</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32">
+        <f>SUM(E4:E12)</f>
+        <v>616863.30000000005</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32">
+        <f t="shared" ref="G13:H13" si="1">SUM(G4:G12)</f>
+        <v>250962.9</v>
+      </c>
+      <c r="H13" s="32">
+        <f t="shared" si="1"/>
+        <v>-365900.39999999997</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="34">
+        <f>H3+H13</f>
+        <v>-365900.39999999997</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="7">
+        <v>-101058.68999999999</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="32">
+        <v>-187350.93</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="7">
+        <v>-86292.24</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="34">
+        <f>H14+H15</f>
+        <v>-553251.32999999996</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="7">
+        <v>-187350.93</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="35">
+        <v>377810</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="7">
+        <v>336660</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="35">
+        <v>8610</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="7">
+        <v>41150</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="41">
+        <f>H17+H18</f>
+        <v>386420</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="7">
+        <v>377810</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A20" s="5"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="46">
+        <f>H16-H19</f>
+        <v>-939671.33</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="7">
+        <v>-565160.92999999993</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="38">
+        <v>57000</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="7">
+        <v>57000</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="39">
+        <f>H20+H21</f>
+        <v>-882671.33</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="7">
+        <v>-508160.92999999993</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="12"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="10"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H12">
+    <sortCondition descending="1" ref="B4:B12"/>
+    <sortCondition ref="A4:A12"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAFE1F0-60EA-46C8-9C11-E7180F21BFAA}">
   <dimension ref="A1:N29"/>
   <sheetViews>
@@ -4302,7 +5954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E1A231-79A5-4BE4-8C0C-F5E13A4831EB}">
   <dimension ref="A1:N35"/>
   <sheetViews>
@@ -5219,7 +6871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F07CE69-5C67-4DF2-B5BE-CD5590D6A395}">
   <dimension ref="A1:N22"/>
   <sheetViews>
@@ -5735,7 +7387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779217B5-9CE8-46BD-8B22-71F5AA3AD105}">
   <dimension ref="A1:L20"/>
   <sheetViews>
@@ -6229,7 +7881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F818BAB4-5237-4BD8-9A61-131DACEE1BB2}">
   <dimension ref="A1:N19"/>
   <sheetViews>
@@ -6662,7 +8314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32283096-5907-4E30-9E76-682BE04B55EC}">
   <dimension ref="A1:N14"/>
   <sheetViews>
@@ -7003,1072 +8655,4 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70859943-B961-4C68-A873-2ACB6A8732BB}">
-  <dimension ref="A1:N28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A2" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="28">
-        <v>45632</v>
-      </c>
-      <c r="C2" s="29">
-        <v>35000</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="37">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="G2" s="31">
-        <f t="shared" ref="G2:G12" si="0">C2*F2</f>
-        <v>7777</v>
-      </c>
-      <c r="H2" s="40">
-        <f t="shared" ref="H2:H11" si="1">G2*0.9</f>
-        <v>6999.3</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="28">
-        <v>45632</v>
-      </c>
-      <c r="C3" s="29">
-        <v>27000</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="31">
-        <f t="shared" si="0"/>
-        <v>13500</v>
-      </c>
-      <c r="H3" s="40">
-        <f t="shared" si="1"/>
-        <v>12150</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="28">
-        <v>45637</v>
-      </c>
-      <c r="C4" s="29">
-        <v>7200</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="37">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G4" s="31">
-        <f t="shared" si="0"/>
-        <v>1260</v>
-      </c>
-      <c r="H4" s="40">
-        <f t="shared" si="1"/>
-        <v>1134</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="28">
-        <v>45638</v>
-      </c>
-      <c r="C5" s="29">
-        <v>55000</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="37">
-        <v>0.2213</v>
-      </c>
-      <c r="G5" s="31">
-        <f t="shared" si="0"/>
-        <v>12171.5</v>
-      </c>
-      <c r="H5" s="40">
-        <f t="shared" si="1"/>
-        <v>10954.35</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="28">
-        <v>45638</v>
-      </c>
-      <c r="C6" s="29">
-        <v>3600</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="31">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="H6" s="40">
-        <f t="shared" si="1"/>
-        <v>324</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="28">
-        <v>45639</v>
-      </c>
-      <c r="C7" s="29">
-        <v>12500</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="37">
-        <v>0.215</v>
-      </c>
-      <c r="G7" s="31">
-        <f t="shared" si="0"/>
-        <v>2687.5</v>
-      </c>
-      <c r="H7" s="40">
-        <f t="shared" si="1"/>
-        <v>2418.75</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A8" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="28">
-        <v>45639</v>
-      </c>
-      <c r="C8" s="29">
-        <v>50000</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="37">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G8" s="31">
-        <f t="shared" si="0"/>
-        <v>1050</v>
-      </c>
-      <c r="H8" s="40">
-        <f t="shared" si="1"/>
-        <v>945</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A9" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="28">
-        <v>45639</v>
-      </c>
-      <c r="C9" s="29">
-        <v>20000</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="37">
-        <v>0.193</v>
-      </c>
-      <c r="G9" s="31">
-        <f t="shared" si="0"/>
-        <v>3860</v>
-      </c>
-      <c r="H9" s="40">
-        <f t="shared" si="1"/>
-        <v>3474</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="28">
-        <v>45643</v>
-      </c>
-      <c r="C10" s="29">
-        <v>50000</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="37">
-        <v>0.22289999999999999</v>
-      </c>
-      <c r="G10" s="31">
-        <f t="shared" si="0"/>
-        <v>11145</v>
-      </c>
-      <c r="H10" s="40">
-        <f t="shared" si="1"/>
-        <v>10030.5</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="28">
-        <v>45651</v>
-      </c>
-      <c r="C11" s="29">
-        <v>60000</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="37">
-        <v>0.19980000000000001</v>
-      </c>
-      <c r="G11" s="31">
-        <f t="shared" si="0"/>
-        <v>11988</v>
-      </c>
-      <c r="H11" s="40">
-        <f t="shared" si="1"/>
-        <v>10789.2</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A12" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="28">
-        <v>45653</v>
-      </c>
-      <c r="C12" s="29">
-        <v>20000</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="37">
-        <v>0.1192</v>
-      </c>
-      <c r="G12" s="31">
-        <f t="shared" si="0"/>
-        <v>2384</v>
-      </c>
-      <c r="H12" s="40">
-        <f>G12</f>
-        <v>2384</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="34">
-        <f>SUM(H2:H12)</f>
-        <v>61603.100000000006</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="28">
-        <v>37617</v>
-      </c>
-      <c r="C14" s="29">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30">
-        <v>21.3</v>
-      </c>
-      <c r="E14" s="31">
-        <v>0</v>
-      </c>
-      <c r="F14" s="30">
-        <v>21.3</v>
-      </c>
-      <c r="G14" s="31">
-        <v>0</v>
-      </c>
-      <c r="H14" s="32">
-        <f t="shared" ref="H14" si="2">G14-E14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="32">
-        <f>SUM(E14:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="32">
-        <f>SUM(G14:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="40">
-        <f>SUM(H14:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="34">
-        <f>H13+H15</f>
-        <v>61603.100000000006</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="32">
-        <v>318141.89525200002</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="41">
-        <f>H16+H17</f>
-        <v>379744.99525200005</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="35">
-        <v>701370</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="35">
-        <v>38000</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="26"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="41">
-        <f>H19+H20</f>
-        <v>739370</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="36">
-        <f>H18-H21</f>
-        <v>-359625.00474799995</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="38">
-        <v>668000</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="48">
-        <f>H22+H23</f>
-        <v>308374.99525200005</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C28" s="12"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="10"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I12">
-    <sortCondition ref="B2:B12"/>
-    <sortCondition ref="A2:A12"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7988E558-09BF-4546-BFFB-0E642120F5F9}">
-  <dimension ref="A1:N18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A2" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="28">
-        <v>44846</v>
-      </c>
-      <c r="C2" s="29">
-        <v>0</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="37">
-        <v>1.3</v>
-      </c>
-      <c r="G2" s="31">
-        <f>C2*F2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="32">
-        <f>G2*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="34">
-        <f>SUM(H2:H2)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="28">
-        <v>45590</v>
-      </c>
-      <c r="C4" s="29">
-        <v>1500</v>
-      </c>
-      <c r="D4" s="30">
-        <v>12</v>
-      </c>
-      <c r="E4" s="31">
-        <v>19756.14</v>
-      </c>
-      <c r="F4" s="30">
-        <v>0</v>
-      </c>
-      <c r="G4" s="31">
-        <v>19756.14</v>
-      </c>
-      <c r="H4" s="40">
-        <f>G4-E4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32">
-        <f>SUM(E4:E4)</f>
-        <v>19756.14</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32">
-        <f>SUM(G4:G4)</f>
-        <v>19756.14</v>
-      </c>
-      <c r="H5" s="32">
-        <f>SUM(H4:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="43">
-        <f>H3+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="32">
-        <v>318141.89525200002</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="41">
-        <f>H6+H7</f>
-        <v>318141.89525200002</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="35">
-        <v>675050</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="35">
-        <v>26320</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="41">
-        <f>H9+H10</f>
-        <v>701370</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="45">
-        <f>H8-H11</f>
-        <v>-383228.10474799998</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="38">
-        <v>668000</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="42">
-        <f>H12+H13</f>
-        <v>284771.89525200002</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="12"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="10"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6606" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70610856-1436-4AFA-951B-390C0A397DAD}"/>
+  <xr:revisionPtr revIDLastSave="6644" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4551DF84-9D06-4B0F-80DE-51C1B1D2CF32}"/>
   <bookViews>
-    <workbookView xWindow="6996" yWindow="0" windowWidth="16140" windowHeight="12336" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5304" yWindow="492" windowWidth="17736" windowHeight="11544" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AUG25" sheetId="88" r:id="rId1"/>
-    <sheet name="JUL25" sheetId="87" r:id="rId2"/>
-    <sheet name="JUN25" sheetId="86" r:id="rId3"/>
-    <sheet name="MAY25" sheetId="85" r:id="rId4"/>
-    <sheet name="APR25" sheetId="84" r:id="rId5"/>
-    <sheet name="MAR25" sheetId="83" r:id="rId6"/>
-    <sheet name="FEB25" sheetId="82" r:id="rId7"/>
-    <sheet name="JAN25" sheetId="81" r:id="rId8"/>
-    <sheet name="DEC24" sheetId="80" r:id="rId9"/>
-    <sheet name="NOV24" sheetId="79" r:id="rId10"/>
-    <sheet name="OCT24" sheetId="78" r:id="rId11"/>
-    <sheet name="SEP24" sheetId="77" r:id="rId12"/>
+    <sheet name="SEP25" sheetId="89" r:id="rId1"/>
+    <sheet name="SEP24" sheetId="77" r:id="rId2"/>
+    <sheet name="AUG25" sheetId="88" r:id="rId3"/>
+    <sheet name="JUL25" sheetId="87" r:id="rId4"/>
+    <sheet name="JUN25" sheetId="86" r:id="rId5"/>
+    <sheet name="MAY25" sheetId="85" r:id="rId6"/>
+    <sheet name="APR25" sheetId="84" r:id="rId7"/>
+    <sheet name="MAR25" sheetId="83" r:id="rId8"/>
+    <sheet name="FEB25" sheetId="82" r:id="rId9"/>
+    <sheet name="JAN25" sheetId="81" r:id="rId10"/>
+    <sheet name="DEC24" sheetId="80" r:id="rId11"/>
+    <sheet name="NOV24" sheetId="79" r:id="rId12"/>
+    <sheet name="OCT24" sheetId="78" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -258,7 +259,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -441,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -563,10 +564,13 @@
     <xf numFmtId="3" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,25 +935,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961B3AB4-C9A4-46F9-AED6-DC61A66CC09A}">
-  <dimension ref="A1:N29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805BC19F-42DC-4CD3-B954-E9F19E56BFF7}">
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
     <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="10" customWidth="1"/>
     <col min="10" max="10" width="12.875" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
@@ -983,7 +987,7 @@
       <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -991,695 +995,1028 @@
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A2" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="28">
-        <v>45897</v>
-      </c>
-      <c r="C2" s="29">
-        <v>600</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="82">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="31">
-        <f>C2*F2</f>
-        <v>1500</v>
-      </c>
-      <c r="H2" s="32">
-        <f>G2*0.9</f>
-        <v>1350</v>
-      </c>
-      <c r="I2" s="11"/>
+      <c r="A2" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="85">
+        <v>45903</v>
+      </c>
+      <c r="C2" s="86">
+        <v>120000</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84">
+        <v>0.15454999999999999</v>
+      </c>
+      <c r="G2" s="89">
+        <v>18546</v>
+      </c>
+      <c r="H2" s="89">
+        <v>16691.400000000001</v>
+      </c>
+      <c r="I2" s="10"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="41">
-        <f>SUM(H2:H2)</f>
-        <v>1350</v>
-      </c>
-      <c r="I3" s="11"/>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A3" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="85">
+        <v>45905</v>
+      </c>
+      <c r="C3" s="86">
+        <v>17500</v>
+      </c>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G3" s="89">
+        <v>3587.5</v>
+      </c>
+      <c r="H3" s="89">
+        <v>3228.75</v>
+      </c>
+      <c r="I3" s="10"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A4" s="84" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B4" s="85">
-        <v>45874</v>
+        <v>45905</v>
       </c>
       <c r="C4" s="86">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="87">
-        <v>1.88</v>
-      </c>
-      <c r="E4" s="87">
-        <v>18841.64</v>
-      </c>
-      <c r="F4" s="87">
-        <v>1.9</v>
-      </c>
-      <c r="G4" s="87">
-        <v>18957.919999999998</v>
-      </c>
-      <c r="H4" s="87">
-        <v>116.28</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>27000</v>
+      </c>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="89">
+        <v>1350</v>
+      </c>
+      <c r="H4" s="89">
+        <v>1350</v>
+      </c>
+      <c r="I4" s="10"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A5" s="84" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B5" s="85">
-        <v>45875</v>
+        <v>45905</v>
       </c>
       <c r="C5" s="86">
-        <v>2800</v>
-      </c>
-      <c r="D5" s="87">
-        <v>10.5</v>
-      </c>
-      <c r="E5" s="87">
-        <v>29465.119999999999</v>
-      </c>
-      <c r="F5" s="87">
-        <v>11.6</v>
-      </c>
-      <c r="G5" s="87">
-        <v>32408.06</v>
-      </c>
-      <c r="H5" s="87">
-        <v>2942.94</v>
-      </c>
-      <c r="I5" s="11"/>
+        <v>27000</v>
+      </c>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="89">
+        <v>13500</v>
+      </c>
+      <c r="H5" s="89">
+        <v>12825</v>
+      </c>
+      <c r="I5" s="10"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A6" s="84" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B6" s="85">
-        <v>45875</v>
+        <v>45905</v>
       </c>
       <c r="C6" s="86">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="87">
-        <v>3.9</v>
-      </c>
-      <c r="E6" s="87">
-        <v>19543.2</v>
-      </c>
-      <c r="F6" s="87">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="G6" s="87">
-        <v>22549.95</v>
-      </c>
-      <c r="H6" s="87">
-        <v>3006.75</v>
-      </c>
-      <c r="I6" s="11"/>
+        <v>8000</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="89">
+        <v>6400</v>
+      </c>
+      <c r="H6" s="89">
+        <v>5760</v>
+      </c>
+      <c r="I6" s="10"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A7" s="84" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B7" s="85">
-        <v>45876</v>
+        <v>45905</v>
       </c>
       <c r="C7" s="86">
-        <v>3200</v>
-      </c>
-      <c r="D7" s="87">
-        <v>9.25</v>
-      </c>
-      <c r="E7" s="87">
-        <v>29665.56</v>
-      </c>
-      <c r="F7" s="87">
-        <v>9.4</v>
-      </c>
-      <c r="G7" s="87">
-        <v>30013.37</v>
-      </c>
-      <c r="H7" s="87">
-        <v>347.81</v>
-      </c>
-      <c r="I7" s="11"/>
+        <v>25000</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="G7" s="89">
+        <v>4292.5</v>
+      </c>
+      <c r="H7" s="89">
+        <v>3863.25</v>
+      </c>
+      <c r="I7" s="10"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A8" s="84" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B8" s="85">
-        <v>45876</v>
+        <v>45909</v>
       </c>
       <c r="C8" s="86">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="87">
-        <v>1.85</v>
-      </c>
-      <c r="E8" s="87">
-        <v>18540.98</v>
-      </c>
-      <c r="F8" s="87">
-        <v>2.06</v>
-      </c>
-      <c r="G8" s="87">
-        <v>20554.38</v>
-      </c>
-      <c r="H8" s="87">
-        <v>2013.4</v>
-      </c>
-      <c r="I8" s="11"/>
+        <v>50000</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="G8" s="89">
+        <v>11110</v>
+      </c>
+      <c r="H8" s="89">
+        <v>9999</v>
+      </c>
+      <c r="I8" s="10"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A9" s="84" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B9" s="85">
-        <v>45877</v>
+        <v>45910</v>
       </c>
       <c r="C9" s="86">
-        <v>6000</v>
-      </c>
-      <c r="D9" s="87">
-        <v>6.1</v>
-      </c>
-      <c r="E9" s="87">
-        <v>36681.06</v>
-      </c>
-      <c r="F9" s="87">
-        <v>6.7</v>
-      </c>
-      <c r="G9" s="87">
-        <v>40110.97</v>
-      </c>
-      <c r="H9" s="87">
-        <v>3429.91</v>
-      </c>
-      <c r="I9" s="11"/>
+        <v>1200</v>
+      </c>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84">
+        <v>0.31</v>
+      </c>
+      <c r="G9" s="89">
+        <v>372</v>
+      </c>
+      <c r="H9" s="89">
+        <v>339.6</v>
+      </c>
+      <c r="I9" s="10"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A10" s="84" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B10" s="85">
-        <v>45877</v>
+        <v>45910</v>
       </c>
       <c r="C10" s="86">
-        <v>3000</v>
-      </c>
-      <c r="D10" s="87">
-        <v>27.75</v>
-      </c>
-      <c r="E10" s="87">
-        <v>83434.39</v>
-      </c>
-      <c r="F10" s="87">
-        <v>31</v>
-      </c>
-      <c r="G10" s="87">
-        <v>92794.01</v>
-      </c>
-      <c r="H10" s="87">
-        <v>9359.6200000000008</v>
-      </c>
-      <c r="I10" s="83"/>
+        <v>81000</v>
+      </c>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="89">
+        <v>20250</v>
+      </c>
+      <c r="H10" s="89">
+        <v>19926</v>
+      </c>
+      <c r="I10" s="10"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A11" s="84" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B11" s="85">
-        <v>45889</v>
+        <v>45910</v>
       </c>
       <c r="C11" s="86">
-        <v>4000</v>
-      </c>
-      <c r="D11" s="87">
-        <v>24.1</v>
-      </c>
-      <c r="E11" s="87">
-        <v>96613.52</v>
-      </c>
-      <c r="F11" s="87">
-        <v>24.3</v>
-      </c>
-      <c r="G11" s="87">
-        <v>96984.72</v>
-      </c>
-      <c r="H11" s="87">
-        <v>371.2</v>
-      </c>
+        <v>17500</v>
+      </c>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="89">
+        <v>1750</v>
+      </c>
+      <c r="H11" s="89">
+        <v>1575</v>
+      </c>
+      <c r="I11" s="10"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A12" s="84" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B12" s="85">
-        <v>45890</v>
+        <v>45911</v>
       </c>
       <c r="C12" s="86">
-        <v>4000</v>
-      </c>
-      <c r="D12" s="87">
-        <v>24.1</v>
-      </c>
-      <c r="E12" s="87">
-        <v>96613.52</v>
-      </c>
-      <c r="F12" s="87">
-        <v>24.3</v>
-      </c>
-      <c r="G12" s="87">
-        <v>96984.72</v>
-      </c>
-      <c r="H12" s="87">
-        <v>371.2</v>
-      </c>
+        <v>55000</v>
+      </c>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84">
+        <v>0.2261</v>
+      </c>
+      <c r="G12" s="89">
+        <v>12435.5</v>
+      </c>
+      <c r="H12" s="89">
+        <v>11191.95</v>
+      </c>
+      <c r="I12" s="10"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A13" s="84" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B13" s="85">
-        <v>45891</v>
+        <v>45911</v>
       </c>
       <c r="C13" s="86">
-        <v>5000</v>
-      </c>
-      <c r="D13" s="87">
-        <v>24.1</v>
-      </c>
-      <c r="E13" s="87">
-        <v>120766.9</v>
-      </c>
-      <c r="F13" s="87">
-        <v>24.3</v>
-      </c>
-      <c r="G13" s="87">
-        <v>121230.88</v>
-      </c>
-      <c r="H13" s="87">
-        <v>463.98</v>
-      </c>
+        <v>69000</v>
+      </c>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="G13" s="89">
+        <v>13558.5</v>
+      </c>
+      <c r="H13" s="89">
+        <v>12202.65</v>
+      </c>
+      <c r="I13" s="10"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A14" s="84" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B14" s="85">
-        <v>45896</v>
+        <v>45911</v>
       </c>
       <c r="C14" s="86">
-        <v>6000</v>
-      </c>
-      <c r="D14" s="87">
-        <v>7.3</v>
-      </c>
-      <c r="E14" s="87">
-        <v>43897.02</v>
-      </c>
-      <c r="F14" s="87">
-        <v>8.4</v>
-      </c>
-      <c r="G14" s="87">
-        <v>50288.37</v>
-      </c>
-      <c r="H14" s="87">
-        <v>6391.35</v>
-      </c>
+        <v>7200</v>
+      </c>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G14" s="89">
+        <v>1260</v>
+      </c>
+      <c r="H14" s="89">
+        <v>1134</v>
+      </c>
+      <c r="I14" s="10"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A15" s="84" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B15" s="85">
-        <v>45897</v>
+        <v>45912</v>
       </c>
       <c r="C15" s="86">
-        <v>5000</v>
-      </c>
-      <c r="D15" s="87">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E15" s="87">
-        <v>11024.36</v>
-      </c>
-      <c r="F15" s="87">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G15" s="87">
-        <v>11474.52</v>
-      </c>
-      <c r="H15" s="87">
-        <v>450.16</v>
-      </c>
-      <c r="I15" s="88"/>
+        <v>4000</v>
+      </c>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84">
+        <v>0.15</v>
+      </c>
+      <c r="G15" s="89">
+        <v>600</v>
+      </c>
+      <c r="H15" s="89">
+        <v>540</v>
+      </c>
+      <c r="I15" s="10"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="32">
-        <f>SUM(E4:E15)</f>
-        <v>605087.27</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="32">
-        <f>SUM(G4:G15)</f>
-        <v>634351.87</v>
-      </c>
-      <c r="H16" s="32">
-        <f>SUM(H4:H15)</f>
-        <v>29264.600000000002</v>
-      </c>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A16" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="85">
+        <v>45912</v>
+      </c>
+      <c r="C16" s="86">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84">
+        <v>1</v>
+      </c>
+      <c r="G16" s="89">
+        <v>5000</v>
+      </c>
+      <c r="H16" s="89">
+        <v>4500</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="41">
-        <f>H3+H16</f>
-        <v>30614.600000000002</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="7">
-        <v>-365900.39999999997</v>
-      </c>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A17" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="85">
+        <v>45912</v>
+      </c>
+      <c r="C17" s="86">
+        <v>4200</v>
+      </c>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84">
+        <v>0.24</v>
+      </c>
+      <c r="G17" s="89">
+        <v>1008</v>
+      </c>
+      <c r="H17" s="89">
+        <v>907.2</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="32">
-        <v>-553251.32999999996</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="7">
-        <v>-187350.93</v>
-      </c>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A18" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="85">
+        <v>45912</v>
+      </c>
+      <c r="C18" s="86">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84">
+        <v>0.36</v>
+      </c>
+      <c r="G18" s="89">
+        <v>360</v>
+      </c>
+      <c r="H18" s="89">
+        <v>324</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="41">
-        <f>H17+H18</f>
-        <v>-522636.73</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="7">
-        <v>-553251.32999999996</v>
-      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A19" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="85">
+        <v>45915</v>
+      </c>
+      <c r="C19" s="86">
+        <v>20000</v>
+      </c>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84">
+        <v>0.1128</v>
+      </c>
+      <c r="G19" s="89">
+        <v>2256</v>
+      </c>
+      <c r="H19" s="89">
+        <v>2256</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="7">
-        <v>386420</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="7">
-        <v>377810</v>
-      </c>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A20" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="85">
+        <v>45915</v>
+      </c>
+      <c r="C20" s="86">
+        <v>50000</v>
+      </c>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="G20" s="89">
+        <v>6625</v>
+      </c>
+      <c r="H20" s="89">
+        <v>5962.5</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="27"/>
       <c r="B21" s="28"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="32"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="35">
-        <v>10130</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="7">
-        <v>8610</v>
-      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="34">
+        <f>SUM(H2:H20)</f>
+        <v>114576.29999999999</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="26"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="41">
-        <f>H20+H21</f>
-        <v>396550</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="7">
-        <v>386420</v>
-      </c>
+      <c r="A22" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="85">
+        <v>45903</v>
+      </c>
+      <c r="C22" s="84">
+        <v>5000</v>
+      </c>
+      <c r="D22" s="84">
+        <v>7.5</v>
+      </c>
+      <c r="E22" s="89">
+        <v>37583.06</v>
+      </c>
+      <c r="F22" s="84">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G22" s="89">
+        <v>41408.080000000002</v>
+      </c>
+      <c r="H22" s="89">
+        <v>3825.02</v>
+      </c>
+      <c r="I22" s="60"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="47">
-        <f>H19-H22</f>
-        <v>-919186.73</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="7">
-        <v>-939671.33</v>
-      </c>
+      <c r="A23" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="85">
+        <v>45908</v>
+      </c>
+      <c r="C23" s="84">
+        <v>5000</v>
+      </c>
+      <c r="D23" s="84">
+        <v>24.1</v>
+      </c>
+      <c r="E23" s="89">
+        <v>120766.9</v>
+      </c>
+      <c r="F23" s="84">
+        <v>23.4</v>
+      </c>
+      <c r="G23" s="89">
+        <v>116740.86</v>
+      </c>
+      <c r="H23" s="89">
+        <v>-4026.04</v>
+      </c>
+      <c r="I23" s="60"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="5"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="7">
-        <v>57000</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="7">
-        <v>57000</v>
-      </c>
+      <c r="A24" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="85">
+        <v>45911</v>
+      </c>
+      <c r="C24" s="84">
+        <v>5000</v>
+      </c>
+      <c r="D24" s="84">
+        <v>23.2</v>
+      </c>
+      <c r="E24" s="89">
+        <v>116256.93</v>
+      </c>
+      <c r="F24" s="84">
+        <v>23.4</v>
+      </c>
+      <c r="G24" s="89">
+        <v>116740.86</v>
+      </c>
+      <c r="H24" s="84">
+        <v>483.93</v>
+      </c>
+      <c r="I24" s="60"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="42">
-        <f>H23+H24</f>
-        <v>-862186.73</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="7">
-        <v>-882671.33</v>
-      </c>
+      <c r="A25" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="85">
+        <v>45915</v>
+      </c>
+      <c r="C25" s="84">
+        <v>4000</v>
+      </c>
+      <c r="D25" s="84">
+        <v>23.1</v>
+      </c>
+      <c r="E25" s="89">
+        <v>92604.66</v>
+      </c>
+      <c r="F25" s="84">
+        <v>25.75</v>
+      </c>
+      <c r="G25" s="89">
+        <v>102771.87</v>
+      </c>
+      <c r="H25" s="89">
+        <v>10167.209999999999</v>
+      </c>
+      <c r="I25" s="60"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="85">
+        <v>45915</v>
+      </c>
+      <c r="C26" s="84">
+        <v>5000</v>
+      </c>
+      <c r="D26" s="84">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E26" s="89">
+        <v>44097.46</v>
+      </c>
+      <c r="F26" s="84">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G26" s="89">
+        <v>48392.57</v>
+      </c>
+      <c r="H26" s="89">
+        <v>4295.1099999999997</v>
+      </c>
+      <c r="I26" s="60"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="10"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="11"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="32">
+        <f>SUM(E22:E26)</f>
+        <v>411309.01000000007</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="32">
+        <f>SUM(G22:G26)</f>
+        <v>426054.24</v>
+      </c>
+      <c r="H27" s="32">
+        <f>SUM(H22:H26)</f>
+        <v>14745.23</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="34">
+        <f>H21+H27</f>
+        <v>129321.52999999998</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="7">
+        <v>30614.600000000002</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="32">
+        <v>-522636.73</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="7">
+        <v>-553251.32999999996</v>
+      </c>
       <c r="K29" s="7"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="7"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="41">
+        <f>H28+H29</f>
+        <v>-393315.2</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="7">
+        <v>-522636.73</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="35">
+        <v>396550</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="7">
+        <v>386420</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="26"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="35">
+        <v>40000</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="7">
+        <v>10130</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="26"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="41">
+        <f>H31+H32</f>
+        <v>436550</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="7">
+        <v>396550</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="5"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="45">
+        <f>H30-H33</f>
+        <v>-829865.2</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="7">
+        <v>-919186.73</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="5"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="7">
+        <v>57000</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="7">
+        <v>57000</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="6"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="42">
+        <f>H34+H35</f>
+        <v>-772865.2</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="7">
+        <v>-862186.73</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="28">
+        <v>45546</v>
+      </c>
+      <c r="C38" s="29">
+        <v>24000</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="54">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="G38" s="31">
+        <f>C38*F38</f>
+        <v>957.59999999999991</v>
+      </c>
+      <c r="H38" s="56">
+        <f>G38*0.9</f>
+        <v>861.83999999999992</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="28">
+        <v>45530</v>
+      </c>
+      <c r="C39" s="29">
+        <v>30000</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="37">
+        <v>0.19</v>
+      </c>
+      <c r="G39" s="31">
+        <f>C39*F39</f>
+        <v>5700</v>
+      </c>
+      <c r="H39" s="32">
+        <f>G39</f>
+        <v>5700</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C40" s="12"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="10"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1690,6 +2027,1042 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32283096-5907-4E30-9E76-682BE04B55EC}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="28">
+        <v>45288</v>
+      </c>
+      <c r="C2" s="29">
+        <v>22500</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="37">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2" si="0">C2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="32">
+        <f>G2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32">
+        <f>SUM(H2,H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45295</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="30">
+        <v>21.7</v>
+      </c>
+      <c r="E4" s="31">
+        <v>43496.13</v>
+      </c>
+      <c r="F4" s="30">
+        <v>22.9</v>
+      </c>
+      <c r="G4" s="31">
+        <v>45698.55</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32">
+        <f>SUM(E4:E4)</f>
+        <v>43496.13</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="32">
+        <f>SUM(G4:G4)</f>
+        <v>45698.55</v>
+      </c>
+      <c r="H5" s="32">
+        <f>SUM(H4:H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="34">
+        <f>H3+H5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="32">
+        <v>308374.99525200005</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="41">
+        <f>H6+H7</f>
+        <v>308374.99525200005</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="35">
+        <v>43930</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="41">
+        <f>H9+H10</f>
+        <v>43930</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="36">
+        <f>H8-H11</f>
+        <v>264444.99525200005</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="38">
+        <v>57000</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="48">
+        <f>H12+H13</f>
+        <v>321444.99525200005</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="6"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70859943-B961-4C68-A873-2ACB6A8732BB}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="28">
+        <v>45632</v>
+      </c>
+      <c r="C2" s="29">
+        <v>35000</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="37">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2:G12" si="0">C2*F2</f>
+        <v>7777</v>
+      </c>
+      <c r="H2" s="40">
+        <f t="shared" ref="H2:H11" si="1">G2*0.9</f>
+        <v>6999.3</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="28">
+        <v>45632</v>
+      </c>
+      <c r="C3" s="29">
+        <v>27000</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+      <c r="H3" s="40">
+        <f t="shared" si="1"/>
+        <v>12150</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45637</v>
+      </c>
+      <c r="C4" s="29">
+        <v>7200</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="37">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="H4" s="40">
+        <f t="shared" si="1"/>
+        <v>1134</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="28">
+        <v>45638</v>
+      </c>
+      <c r="C5" s="29">
+        <v>55000</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="37">
+        <v>0.2213</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>12171.5</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" si="1"/>
+        <v>10954.35</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="28">
+        <v>45638</v>
+      </c>
+      <c r="C6" s="29">
+        <v>3600</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="H6" s="40">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="28">
+        <v>45639</v>
+      </c>
+      <c r="C7" s="29">
+        <v>12500</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="37">
+        <v>0.215</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="0"/>
+        <v>2687.5</v>
+      </c>
+      <c r="H7" s="40">
+        <f t="shared" si="1"/>
+        <v>2418.75</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="28">
+        <v>45639</v>
+      </c>
+      <c r="C8" s="29">
+        <v>50000</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="37">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="H8" s="40">
+        <f t="shared" si="1"/>
+        <v>945</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="28">
+        <v>45639</v>
+      </c>
+      <c r="C9" s="29">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="37">
+        <v>0.193</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="0"/>
+        <v>3860</v>
+      </c>
+      <c r="H9" s="40">
+        <f t="shared" si="1"/>
+        <v>3474</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="28">
+        <v>45643</v>
+      </c>
+      <c r="C10" s="29">
+        <v>50000</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="37">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="0"/>
+        <v>11145</v>
+      </c>
+      <c r="H10" s="40">
+        <f t="shared" si="1"/>
+        <v>10030.5</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="28">
+        <v>45651</v>
+      </c>
+      <c r="C11" s="29">
+        <v>60000</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="37">
+        <v>0.19980000000000001</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" si="0"/>
+        <v>11988</v>
+      </c>
+      <c r="H11" s="40">
+        <f t="shared" si="1"/>
+        <v>10789.2</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="28">
+        <v>45653</v>
+      </c>
+      <c r="C12" s="29">
+        <v>20000</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="37">
+        <v>0.1192</v>
+      </c>
+      <c r="G12" s="31">
+        <f t="shared" si="0"/>
+        <v>2384</v>
+      </c>
+      <c r="H12" s="40">
+        <f>G12</f>
+        <v>2384</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="34">
+        <f>SUM(H2:H12)</f>
+        <v>61603.100000000006</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="28">
+        <v>37617</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
+        <v>21.3</v>
+      </c>
+      <c r="E14" s="31">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <v>21.3</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32">
+        <f t="shared" ref="H14" si="2">G14-E14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32">
+        <f>SUM(E14:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32">
+        <f>SUM(G14:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="40">
+        <f>SUM(H14:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="34">
+        <f>H13+H15</f>
+        <v>61603.100000000006</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="32">
+        <v>318141.89525200002</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="41">
+        <f>H16+H17</f>
+        <v>379744.99525200005</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="35">
+        <v>701370</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="35">
+        <v>38000</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="41">
+        <f>H19+H20</f>
+        <v>739370</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="5"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="36">
+        <f>H18-H21</f>
+        <v>-359625.00474799995</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="38">
+        <v>668000</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="6"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="48">
+        <f>H22+H23</f>
+        <v>308374.99525200005</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="12"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="10"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I12">
+    <sortCondition ref="B2:B12"/>
+    <sortCondition ref="A2:A12"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7988E558-09BF-4546-BFFB-0E642120F5F9}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -2064,7 +3437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E8D5A8-C6BD-47CE-94D2-6F0DD38CBCC4}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -2433,12 +3806,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04FE74-71A4-490B-8947-83CEB1364CED}">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -3596,7 +4969,766 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961B3AB4-C9A4-46F9-AED6-DC61A66CC09A}">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="28">
+        <v>45897</v>
+      </c>
+      <c r="C2" s="29">
+        <v>600</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="82">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="31">
+        <f>C2*F2</f>
+        <v>1500</v>
+      </c>
+      <c r="H2" s="32">
+        <f>G2*0.9</f>
+        <v>1350</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="41">
+        <f>SUM(H2:H2)</f>
+        <v>1350</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="85">
+        <v>45874</v>
+      </c>
+      <c r="C4" s="86">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="87">
+        <v>1.88</v>
+      </c>
+      <c r="E4" s="87">
+        <v>18841.64</v>
+      </c>
+      <c r="F4" s="87">
+        <v>1.9</v>
+      </c>
+      <c r="G4" s="87">
+        <v>18957.919999999998</v>
+      </c>
+      <c r="H4" s="87">
+        <v>116.28</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="85">
+        <v>45875</v>
+      </c>
+      <c r="C5" s="86">
+        <v>2800</v>
+      </c>
+      <c r="D5" s="87">
+        <v>10.5</v>
+      </c>
+      <c r="E5" s="87">
+        <v>29465.119999999999</v>
+      </c>
+      <c r="F5" s="87">
+        <v>11.6</v>
+      </c>
+      <c r="G5" s="87">
+        <v>32408.06</v>
+      </c>
+      <c r="H5" s="87">
+        <v>2942.94</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="85">
+        <v>45875</v>
+      </c>
+      <c r="C6" s="86">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="87">
+        <v>3.9</v>
+      </c>
+      <c r="E6" s="87">
+        <v>19543.2</v>
+      </c>
+      <c r="F6" s="87">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="G6" s="87">
+        <v>22549.95</v>
+      </c>
+      <c r="H6" s="87">
+        <v>3006.75</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="85">
+        <v>45876</v>
+      </c>
+      <c r="C7" s="86">
+        <v>3200</v>
+      </c>
+      <c r="D7" s="87">
+        <v>9.25</v>
+      </c>
+      <c r="E7" s="87">
+        <v>29665.56</v>
+      </c>
+      <c r="F7" s="87">
+        <v>9.4</v>
+      </c>
+      <c r="G7" s="87">
+        <v>30013.37</v>
+      </c>
+      <c r="H7" s="87">
+        <v>347.81</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="85">
+        <v>45876</v>
+      </c>
+      <c r="C8" s="86">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="87">
+        <v>1.85</v>
+      </c>
+      <c r="E8" s="87">
+        <v>18540.98</v>
+      </c>
+      <c r="F8" s="87">
+        <v>2.06</v>
+      </c>
+      <c r="G8" s="87">
+        <v>20554.38</v>
+      </c>
+      <c r="H8" s="87">
+        <v>2013.4</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="85">
+        <v>45877</v>
+      </c>
+      <c r="C9" s="86">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="87">
+        <v>6.1</v>
+      </c>
+      <c r="E9" s="87">
+        <v>36681.06</v>
+      </c>
+      <c r="F9" s="87">
+        <v>6.7</v>
+      </c>
+      <c r="G9" s="87">
+        <v>40110.97</v>
+      </c>
+      <c r="H9" s="87">
+        <v>3429.91</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="85">
+        <v>45877</v>
+      </c>
+      <c r="C10" s="86">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="87">
+        <v>27.75</v>
+      </c>
+      <c r="E10" s="87">
+        <v>83434.39</v>
+      </c>
+      <c r="F10" s="87">
+        <v>31</v>
+      </c>
+      <c r="G10" s="87">
+        <v>92794.01</v>
+      </c>
+      <c r="H10" s="87">
+        <v>9359.6200000000008</v>
+      </c>
+      <c r="I10" s="83"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="85">
+        <v>45889</v>
+      </c>
+      <c r="C11" s="86">
+        <v>4000</v>
+      </c>
+      <c r="D11" s="87">
+        <v>24.1</v>
+      </c>
+      <c r="E11" s="87">
+        <v>96613.52</v>
+      </c>
+      <c r="F11" s="87">
+        <v>24.3</v>
+      </c>
+      <c r="G11" s="87">
+        <v>96984.72</v>
+      </c>
+      <c r="H11" s="87">
+        <v>371.2</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="85">
+        <v>45890</v>
+      </c>
+      <c r="C12" s="86">
+        <v>4000</v>
+      </c>
+      <c r="D12" s="87">
+        <v>24.1</v>
+      </c>
+      <c r="E12" s="87">
+        <v>96613.52</v>
+      </c>
+      <c r="F12" s="87">
+        <v>24.3</v>
+      </c>
+      <c r="G12" s="87">
+        <v>96984.72</v>
+      </c>
+      <c r="H12" s="87">
+        <v>371.2</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="85">
+        <v>45891</v>
+      </c>
+      <c r="C13" s="86">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="87">
+        <v>24.1</v>
+      </c>
+      <c r="E13" s="87">
+        <v>120766.9</v>
+      </c>
+      <c r="F13" s="87">
+        <v>24.3</v>
+      </c>
+      <c r="G13" s="87">
+        <v>121230.88</v>
+      </c>
+      <c r="H13" s="87">
+        <v>463.98</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="85">
+        <v>45896</v>
+      </c>
+      <c r="C14" s="86">
+        <v>6000</v>
+      </c>
+      <c r="D14" s="87">
+        <v>7.3</v>
+      </c>
+      <c r="E14" s="87">
+        <v>43897.02</v>
+      </c>
+      <c r="F14" s="87">
+        <v>8.4</v>
+      </c>
+      <c r="G14" s="87">
+        <v>50288.37</v>
+      </c>
+      <c r="H14" s="87">
+        <v>6391.35</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="85">
+        <v>45897</v>
+      </c>
+      <c r="C15" s="86">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="87">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E15" s="87">
+        <v>11024.36</v>
+      </c>
+      <c r="F15" s="87">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G15" s="87">
+        <v>11474.52</v>
+      </c>
+      <c r="H15" s="87">
+        <v>450.16</v>
+      </c>
+      <c r="I15" s="88"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32">
+        <f>SUM(E4:E15)</f>
+        <v>605087.27</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32">
+        <f>SUM(G4:G15)</f>
+        <v>634351.87</v>
+      </c>
+      <c r="H16" s="32">
+        <f>SUM(H4:H15)</f>
+        <v>29264.600000000002</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="41">
+        <f>H3+H16</f>
+        <v>30614.600000000002</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-365900.39999999997</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="32">
+        <v>-553251.32999999996</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-187350.93</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="41">
+        <f>H17+H18</f>
+        <v>-522636.73</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="7">
+        <v>-553251.32999999996</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="7">
+        <v>386420</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="7">
+        <v>377810</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="35">
+        <v>10130</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="7">
+        <v>8610</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="26"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="41">
+        <f>H20+H21</f>
+        <v>396550</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="7">
+        <v>386420</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="47">
+        <f>H19-H22</f>
+        <v>-919186.73</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="7">
+        <v>-939671.33</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="7">
+        <v>57000</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="7">
+        <v>57000</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="6"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="42">
+        <f>H23+H24</f>
+        <v>-862186.73</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="7">
+        <v>-882671.33</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="10"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7193655-9E82-4E5C-9879-086AA4339AB9}">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -4276,7 +6408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAFE1F0-60EA-46C8-9C11-E7180F21BFAA}">
   <dimension ref="A1:N29"/>
   <sheetViews>
@@ -4989,7 +7121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E1A231-79A5-4BE4-8C0C-F5E13A4831EB}">
   <dimension ref="A1:N35"/>
   <sheetViews>
@@ -5906,7 +8038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F07CE69-5C67-4DF2-B5BE-CD5590D6A395}">
   <dimension ref="A1:N22"/>
   <sheetViews>
@@ -6422,7 +8554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779217B5-9CE8-46BD-8B22-71F5AA3AD105}">
   <dimension ref="A1:L20"/>
   <sheetViews>
@@ -6916,7 +9048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F818BAB4-5237-4BD8-9A61-131DACEE1BB2}">
   <dimension ref="A1:N19"/>
   <sheetViews>
@@ -7347,1040 +9479,4 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32283096-5907-4E30-9E76-682BE04B55EC}">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="28">
-        <v>45288</v>
-      </c>
-      <c r="C2" s="29">
-        <v>22500</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="37">
-        <v>0</v>
-      </c>
-      <c r="G2" s="31">
-        <f t="shared" ref="G2" si="0">C2*F2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="32">
-        <f>G2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32">
-        <f>SUM(H2,H2)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="28">
-        <v>45295</v>
-      </c>
-      <c r="C4" s="29">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="30">
-        <v>21.7</v>
-      </c>
-      <c r="E4" s="31">
-        <v>43496.13</v>
-      </c>
-      <c r="F4" s="30">
-        <v>22.9</v>
-      </c>
-      <c r="G4" s="31">
-        <v>45698.55</v>
-      </c>
-      <c r="H4" s="32">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32">
-        <f>SUM(E4:E4)</f>
-        <v>43496.13</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32">
-        <f>SUM(G4:G4)</f>
-        <v>45698.55</v>
-      </c>
-      <c r="H5" s="32">
-        <f>SUM(H4:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="34">
-        <f>H3+H5</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="32">
-        <v>308374.99525200005</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="41">
-        <f>H6+H7</f>
-        <v>308374.99525200005</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="35">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="35">
-        <v>43930</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="41">
-        <f>H9+H10</f>
-        <v>43930</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="36">
-        <f>H8-H11</f>
-        <v>264444.99525200005</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="38">
-        <v>57000</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="48">
-        <f>H12+H13</f>
-        <v>321444.99525200005</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="6"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70859943-B961-4C68-A873-2ACB6A8732BB}">
-  <dimension ref="A1:N28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A2" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="28">
-        <v>45632</v>
-      </c>
-      <c r="C2" s="29">
-        <v>35000</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="37">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="G2" s="31">
-        <f t="shared" ref="G2:G12" si="0">C2*F2</f>
-        <v>7777</v>
-      </c>
-      <c r="H2" s="40">
-        <f t="shared" ref="H2:H11" si="1">G2*0.9</f>
-        <v>6999.3</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="28">
-        <v>45632</v>
-      </c>
-      <c r="C3" s="29">
-        <v>27000</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="31">
-        <f t="shared" si="0"/>
-        <v>13500</v>
-      </c>
-      <c r="H3" s="40">
-        <f t="shared" si="1"/>
-        <v>12150</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="28">
-        <v>45637</v>
-      </c>
-      <c r="C4" s="29">
-        <v>7200</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="37">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G4" s="31">
-        <f t="shared" si="0"/>
-        <v>1260</v>
-      </c>
-      <c r="H4" s="40">
-        <f t="shared" si="1"/>
-        <v>1134</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="28">
-        <v>45638</v>
-      </c>
-      <c r="C5" s="29">
-        <v>55000</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="37">
-        <v>0.2213</v>
-      </c>
-      <c r="G5" s="31">
-        <f t="shared" si="0"/>
-        <v>12171.5</v>
-      </c>
-      <c r="H5" s="40">
-        <f t="shared" si="1"/>
-        <v>10954.35</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="28">
-        <v>45638</v>
-      </c>
-      <c r="C6" s="29">
-        <v>3600</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="31">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="H6" s="40">
-        <f t="shared" si="1"/>
-        <v>324</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="28">
-        <v>45639</v>
-      </c>
-      <c r="C7" s="29">
-        <v>12500</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="37">
-        <v>0.215</v>
-      </c>
-      <c r="G7" s="31">
-        <f t="shared" si="0"/>
-        <v>2687.5</v>
-      </c>
-      <c r="H7" s="40">
-        <f t="shared" si="1"/>
-        <v>2418.75</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A8" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="28">
-        <v>45639</v>
-      </c>
-      <c r="C8" s="29">
-        <v>50000</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="37">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G8" s="31">
-        <f t="shared" si="0"/>
-        <v>1050</v>
-      </c>
-      <c r="H8" s="40">
-        <f t="shared" si="1"/>
-        <v>945</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A9" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="28">
-        <v>45639</v>
-      </c>
-      <c r="C9" s="29">
-        <v>20000</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="37">
-        <v>0.193</v>
-      </c>
-      <c r="G9" s="31">
-        <f t="shared" si="0"/>
-        <v>3860</v>
-      </c>
-      <c r="H9" s="40">
-        <f t="shared" si="1"/>
-        <v>3474</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="28">
-        <v>45643</v>
-      </c>
-      <c r="C10" s="29">
-        <v>50000</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="37">
-        <v>0.22289999999999999</v>
-      </c>
-      <c r="G10" s="31">
-        <f t="shared" si="0"/>
-        <v>11145</v>
-      </c>
-      <c r="H10" s="40">
-        <f t="shared" si="1"/>
-        <v>10030.5</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="28">
-        <v>45651</v>
-      </c>
-      <c r="C11" s="29">
-        <v>60000</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="37">
-        <v>0.19980000000000001</v>
-      </c>
-      <c r="G11" s="31">
-        <f t="shared" si="0"/>
-        <v>11988</v>
-      </c>
-      <c r="H11" s="40">
-        <f t="shared" si="1"/>
-        <v>10789.2</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
-      <c r="A12" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="28">
-        <v>45653</v>
-      </c>
-      <c r="C12" s="29">
-        <v>20000</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="37">
-        <v>0.1192</v>
-      </c>
-      <c r="G12" s="31">
-        <f t="shared" si="0"/>
-        <v>2384</v>
-      </c>
-      <c r="H12" s="40">
-        <f>G12</f>
-        <v>2384</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="34">
-        <f>SUM(H2:H12)</f>
-        <v>61603.100000000006</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="28">
-        <v>37617</v>
-      </c>
-      <c r="C14" s="29">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30">
-        <v>21.3</v>
-      </c>
-      <c r="E14" s="31">
-        <v>0</v>
-      </c>
-      <c r="F14" s="30">
-        <v>21.3</v>
-      </c>
-      <c r="G14" s="31">
-        <v>0</v>
-      </c>
-      <c r="H14" s="32">
-        <f t="shared" ref="H14" si="2">G14-E14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="32">
-        <f>SUM(E14:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="32">
-        <f>SUM(G14:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="40">
-        <f>SUM(H14:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="34">
-        <f>H13+H15</f>
-        <v>61603.100000000006</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="32">
-        <v>318141.89525200002</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="41">
-        <f>H16+H17</f>
-        <v>379744.99525200005</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="35">
-        <v>701370</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="35">
-        <v>38000</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="26"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="41">
-        <f>H19+H20</f>
-        <v>739370</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="36">
-        <f>H18-H21</f>
-        <v>-359625.00474799995</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="38">
-        <v>668000</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="48">
-        <f>H22+H23</f>
-        <v>308374.99525200005</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C28" s="12"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="10"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I12">
-    <sortCondition ref="B2:B12"/>
-    <sortCondition ref="A2:A12"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6644" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4551DF84-9D06-4B0F-80DE-51C1B1D2CF32}"/>
+  <xr:revisionPtr revIDLastSave="6666" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF99C79B-BD7E-4FCB-8950-A99521DB5714}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="492" windowWidth="17736" windowHeight="11544" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP25" sheetId="89" r:id="rId1"/>
@@ -253,15 +253,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="187" formatCode="0.000"/>
+    <numFmt numFmtId="188" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="190" formatCode="0.0000"/>
+    <numFmt numFmtId="191" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="192" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="193" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -337,14 +337,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -369,20 +369,20 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -393,7 +393,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -442,19 +456,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -462,24 +476,24 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="191" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -487,39 +501,39 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="191" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="189" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="190" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,29 +545,29 @@
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="189" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="192" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="191" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="190" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -564,11 +578,23 @@
     <xf numFmtId="3" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="193" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -939,15 +965,15 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="7" customWidth="1"/>
     <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
@@ -1024,24 +1050,24 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A3" s="84" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B3" s="85">
-        <v>45905</v>
+        <v>45910</v>
       </c>
       <c r="C3" s="86">
-        <v>17500</v>
+        <v>1200</v>
       </c>
       <c r="D3" s="84"/>
       <c r="E3" s="84"/>
-      <c r="F3" s="84">
-        <v>0.20499999999999999</v>
+      <c r="F3" s="90">
+        <v>0.31</v>
       </c>
       <c r="G3" s="89">
-        <v>3587.5</v>
+        <v>372</v>
       </c>
       <c r="H3" s="89">
-        <v>3228.75</v>
+        <v>339.6</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="7"/>
@@ -1052,24 +1078,24 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A4" s="84" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B4" s="85">
         <v>45905</v>
       </c>
-      <c r="C4" s="86">
-        <v>27000</v>
+      <c r="C4" s="91">
+        <v>17500</v>
       </c>
       <c r="D4" s="84"/>
       <c r="E4" s="84"/>
-      <c r="F4" s="84">
-        <v>0.05</v>
+      <c r="F4" s="90">
+        <v>0.20499999999999999</v>
       </c>
       <c r="G4" s="89">
-        <v>1350</v>
+        <v>3587.5</v>
       </c>
       <c r="H4" s="89">
-        <v>1350</v>
+        <v>3228.75</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="7"/>
@@ -1080,24 +1106,24 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A5" s="84" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B5" s="85">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="C5" s="86">
-        <v>27000</v>
+        <v>4000</v>
       </c>
       <c r="D5" s="84"/>
       <c r="E5" s="84"/>
-      <c r="F5" s="84">
-        <v>0.5</v>
+      <c r="F5" s="90">
+        <v>0.15</v>
       </c>
       <c r="G5" s="89">
-        <v>13500</v>
+        <v>600</v>
       </c>
       <c r="H5" s="89">
-        <v>12825</v>
+        <v>540</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="7"/>
@@ -1108,24 +1134,24 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A6" s="84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="85">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="C6" s="86">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="84"/>
       <c r="F6" s="84">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G6" s="89">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="H6" s="89">
-        <v>5760</v>
+        <v>4500</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="7"/>
@@ -1136,24 +1162,24 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A7" s="84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="85">
-        <v>45905</v>
-      </c>
-      <c r="C7" s="86">
-        <v>25000</v>
+        <v>45911</v>
+      </c>
+      <c r="C7" s="92">
+        <v>55000</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="84"/>
-      <c r="F7" s="84">
-        <v>0.17169999999999999</v>
+      <c r="F7" s="90">
+        <v>0.2261</v>
       </c>
       <c r="G7" s="89">
-        <v>4292.5</v>
+        <v>12435.5</v>
       </c>
       <c r="H7" s="89">
-        <v>3863.25</v>
+        <v>11191.95</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="7"/>
@@ -1169,7 +1195,7 @@
       <c r="B8" s="85">
         <v>45909</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="91">
         <v>50000</v>
       </c>
       <c r="D8" s="84"/>
@@ -1192,24 +1218,24 @@
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A9" s="84" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B9" s="85">
-        <v>45910</v>
-      </c>
-      <c r="C9" s="86">
-        <v>1200</v>
+        <v>45911</v>
+      </c>
+      <c r="C9" s="91">
+        <v>69000</v>
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
-      <c r="F9" s="84">
-        <v>0.31</v>
+      <c r="F9" s="90">
+        <v>0.19650000000000001</v>
       </c>
       <c r="G9" s="89">
-        <v>372</v>
+        <v>13558.5</v>
       </c>
       <c r="H9" s="89">
-        <v>339.6</v>
+        <v>12202.65</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="7"/>
@@ -1220,24 +1246,24 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A10" s="84" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B10" s="85">
-        <v>45910</v>
-      </c>
-      <c r="C10" s="86">
-        <v>81000</v>
+        <v>45911</v>
+      </c>
+      <c r="C10" s="92">
+        <v>7200</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
       <c r="F10" s="84">
-        <v>0.25</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G10" s="89">
-        <v>20250</v>
+        <v>1260</v>
       </c>
       <c r="H10" s="89">
-        <v>19926</v>
+        <v>1134</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="7"/>
@@ -1248,24 +1274,24 @@
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A11" s="84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="85">
-        <v>45910</v>
-      </c>
-      <c r="C11" s="86">
-        <v>17500</v>
+        <v>45912</v>
+      </c>
+      <c r="C11" s="92">
+        <v>4200</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="84"/>
-      <c r="F11" s="84">
-        <v>0.1</v>
+      <c r="F11" s="93">
+        <v>0.24</v>
       </c>
       <c r="G11" s="89">
-        <v>1750</v>
+        <v>1008</v>
       </c>
       <c r="H11" s="89">
-        <v>1575</v>
+        <v>907.2</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="7"/>
@@ -1276,24 +1302,24 @@
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A12" s="84" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B12" s="85">
-        <v>45911</v>
-      </c>
-      <c r="C12" s="86">
-        <v>55000</v>
+        <v>45910</v>
+      </c>
+      <c r="C12" s="91">
+        <v>81000</v>
       </c>
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
-      <c r="F12" s="84">
-        <v>0.2261</v>
+      <c r="F12" s="90">
+        <v>0.25</v>
       </c>
       <c r="G12" s="89">
-        <v>12435.5</v>
+        <v>20250</v>
       </c>
       <c r="H12" s="89">
-        <v>11191.95</v>
+        <v>19926</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="7"/>
@@ -1304,24 +1330,24 @@
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A13" s="84" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B13" s="85">
-        <v>45911</v>
+        <v>45905</v>
       </c>
       <c r="C13" s="86">
-        <v>69000</v>
+        <v>27000</v>
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="84"/>
       <c r="F13" s="84">
-        <v>0.19650000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G13" s="89">
-        <v>13558.5</v>
+        <v>1350</v>
       </c>
       <c r="H13" s="89">
-        <v>12202.65</v>
+        <v>1350</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="7"/>
@@ -1332,24 +1358,24 @@
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A14" s="84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="85">
-        <v>45911</v>
+        <v>45905</v>
       </c>
       <c r="C14" s="86">
-        <v>7200</v>
+        <v>27000</v>
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="84"/>
       <c r="F14" s="84">
-        <v>0.17499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="89">
-        <v>1260</v>
+        <v>13500</v>
       </c>
       <c r="H14" s="89">
-        <v>1134</v>
+        <v>12825</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="7"/>
@@ -1360,24 +1386,24 @@
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A15" s="84" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B15" s="85">
-        <v>45912</v>
-      </c>
-      <c r="C15" s="86">
-        <v>4000</v>
+        <v>45910</v>
+      </c>
+      <c r="C15" s="91">
+        <v>17500</v>
       </c>
       <c r="D15" s="84"/>
       <c r="E15" s="84"/>
       <c r="F15" s="84">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G15" s="89">
-        <v>600</v>
+        <v>1750</v>
       </c>
       <c r="H15" s="89">
-        <v>540</v>
+        <v>1575</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="7"/>
@@ -1388,24 +1414,24 @@
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A16" s="84" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B16" s="85">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="C16" s="86">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
-      <c r="F16" s="84">
-        <v>1</v>
+      <c r="F16" s="90">
+        <v>0.1128</v>
       </c>
       <c r="G16" s="89">
-        <v>5000</v>
+        <v>2256</v>
       </c>
       <c r="H16" s="89">
-        <v>4500</v>
+        <v>2256</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="7"/>
@@ -1416,24 +1442,24 @@
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A17" s="84" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B17" s="85">
         <v>45912</v>
       </c>
       <c r="C17" s="86">
-        <v>4200</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
-      <c r="F17" s="84">
-        <v>0.24</v>
+      <c r="F17" s="90">
+        <v>0.36</v>
       </c>
       <c r="G17" s="89">
-        <v>1008</v>
+        <v>360</v>
       </c>
       <c r="H17" s="89">
-        <v>907.2</v>
+        <v>324</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="7"/>
@@ -1444,24 +1470,24 @@
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A18" s="84" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B18" s="85">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="C18" s="86">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84">
-        <v>0.36</v>
+        <v>0.8</v>
       </c>
       <c r="G18" s="89">
-        <v>360</v>
+        <v>6400</v>
       </c>
       <c r="H18" s="89">
-        <v>324</v>
+        <v>5760</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="7"/>
@@ -1472,24 +1498,24 @@
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A19" s="84" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B19" s="85">
         <v>45915</v>
       </c>
       <c r="C19" s="86">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
-      <c r="F19" s="84">
-        <v>0.1128</v>
+      <c r="F19" s="93">
+        <v>0.13250000000000001</v>
       </c>
       <c r="G19" s="89">
-        <v>2256</v>
+        <v>6625</v>
       </c>
       <c r="H19" s="89">
-        <v>2256</v>
+        <v>5962.5</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="7"/>
@@ -1500,24 +1526,24 @@
     </row>
     <row r="20" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
       <c r="A20" s="84" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="85">
-        <v>45915</v>
-      </c>
-      <c r="C20" s="86">
-        <v>50000</v>
+        <v>45905</v>
+      </c>
+      <c r="C20" s="92">
+        <v>25000</v>
       </c>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
-      <c r="F20" s="84">
-        <v>0.13250000000000001</v>
+      <c r="F20" s="93">
+        <v>0.17169999999999999</v>
       </c>
       <c r="G20" s="89">
-        <v>6625</v>
+        <v>4292.5</v>
       </c>
       <c r="H20" s="89">
-        <v>5962.5</v>
+        <v>3863.25</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="7"/>
@@ -2020,6 +2046,9 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
+    <sortCondition ref="A2:A20"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>

--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6666" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF99C79B-BD7E-4FCB-8950-A99521DB5714}"/>
+  <xr:revisionPtr revIDLastSave="6667" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07FB3E30-453A-4946-9676-970FEF94237C}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5364" yWindow="2172" windowWidth="14892" windowHeight="10404" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP25" sheetId="89" r:id="rId1"/>
@@ -253,13 +253,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="187" formatCode="0.000"/>
-    <numFmt numFmtId="188" formatCode="\฿#,##0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;฿&quot;#,##0.00"/>
-    <numFmt numFmtId="190" formatCode="0.0000"/>
-    <numFmt numFmtId="191" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="192" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="193" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="\฿#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -337,14 +337,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -369,20 +369,20 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -393,21 +393,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -459,16 +459,16 @@
   <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -476,24 +476,24 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -501,39 +501,39 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="191" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="189" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="190" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,29 +545,29 @@
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="189" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="192" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="191" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="190" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -578,10 +578,10 @@
     <xf numFmtId="3" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="193" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -612,6 +612,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -965,8 +969,8 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1860,7 +1864,7 @@
         <v>55</v>
       </c>
       <c r="H32" s="35">
-        <v>40000</v>
+        <v>62010</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>53</v>
@@ -1884,7 +1888,7 @@
       </c>
       <c r="H33" s="41">
         <f>H31+H32</f>
-        <v>436550</v>
+        <v>458560</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>14</v>
@@ -1909,7 +1913,7 @@
       </c>
       <c r="H34" s="45">
         <f>H30-H33</f>
-        <v>-829865.2</v>
+        <v>-851875.2</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>15</v>
@@ -1958,7 +1962,7 @@
       </c>
       <c r="H36" s="42">
         <f>H34+H35</f>
-        <v>-772865.2</v>
+        <v>-794875.2</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>33</v>
